--- a/capiq_data/in_process_data/IQ187662.xlsx
+++ b/capiq_data/in_process_data/IQ187662.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19785CE8-31B2-4C65-BB78-DEF4C802A453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16381358-B634-481E-B4B8-21BCABC30205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"39797d81-d690-431f-a6c9-a1ca9d79d612"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"799603ab-5e0d-499b-a8b5-702cba2c7e4c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>17.486999999999998</v>
+        <v>35.738999999999997</v>
       </c>
       <c r="D2">
-        <v>160.87799999999999</v>
+        <v>111.23399999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>160.87799999999999</v>
+        <v>111.23399999999999</v>
       </c>
       <c r="G2">
-        <v>3280.66</v>
+        <v>1857.943</v>
       </c>
       <c r="H2">
-        <v>17527.760999999999</v>
+        <v>5626.7749999999996</v>
       </c>
       <c r="I2">
-        <v>14336.941000000001</v>
+        <v>4862.259</v>
       </c>
       <c r="J2">
-        <v>959.95600000000002</v>
+        <v>38.588999999999999</v>
       </c>
       <c r="K2">
-        <v>47.512</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14729.53</v>
+        <v>4862.259</v>
       </c>
       <c r="O2">
-        <v>15779.483</v>
+        <v>4981.9859999999999</v>
       </c>
       <c r="P2">
-        <v>1256.7719999999999</v>
+        <v>38.588999999999999</v>
       </c>
       <c r="Q2">
-        <v>-701.93700000000001</v>
+        <v>-82.870999999999995</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1357</v>
+        <v>830</v>
       </c>
       <c r="T2">
-        <v>1748.278</v>
+        <v>644.78899999999999</v>
       </c>
       <c r="U2">
-        <v>2969.1579999999999</v>
+        <v>1722.366</v>
       </c>
       <c r="V2">
-        <v>18.366</v>
+        <v>47.219000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1936.6420000000001</v>
+        <v>78.004000000000005</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1992.6569999999999</v>
+        <v>-73.150999999999996</v>
       </c>
       <c r="AA2">
-        <v>17.486999999999998</v>
+        <v>35.738999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>33.006999999999998</v>
+        <v>33.335999999999999</v>
       </c>
       <c r="D3">
-        <v>213.3</v>
+        <v>100.708</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>213.3</v>
+        <v>100.708</v>
       </c>
       <c r="G3">
-        <v>2575.002</v>
+        <v>1439.086</v>
       </c>
       <c r="H3">
-        <v>18618.266</v>
+        <v>4842.7550000000001</v>
       </c>
       <c r="I3">
-        <v>15330.319</v>
+        <v>4042.2049999999999</v>
       </c>
       <c r="J3">
-        <v>954.83299999999997</v>
+        <v>38.601999999999997</v>
       </c>
       <c r="K3">
-        <v>108.351</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.83</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15727.879000000001</v>
+        <v>4042.2049999999999</v>
       </c>
       <c r="O3">
-        <v>16771.235000000001</v>
+        <v>4152.1710000000003</v>
       </c>
       <c r="P3">
-        <v>1313.0840000000001</v>
+        <v>38.601999999999997</v>
       </c>
       <c r="Q3">
-        <v>-726.37199999999996</v>
+        <v>-403.18599999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>1396</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1847.0309999999999</v>
+        <v>690.58399999999995</v>
       </c>
       <c r="U3">
-        <v>830.37300000000005</v>
+        <v>1319.18</v>
       </c>
       <c r="V3">
-        <v>6.1230000000000002</v>
+        <v>33.994999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1027.5889999999999</v>
+        <v>-812.40499999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1637.2909999999999</v>
+        <v>396.29399999999998</v>
       </c>
       <c r="AA3">
-        <v>33.006999999999998</v>
+        <v>33.335999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>65.75</v>
+        <v>24.132000000000001</v>
       </c>
       <c r="D4">
-        <v>254.02699999999999</v>
+        <v>82.206999999999994</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>254.02699999999999</v>
+        <v>82.206999999999994</v>
       </c>
       <c r="G4">
-        <v>2852.308</v>
+        <v>888.03599999999994</v>
       </c>
       <c r="H4">
-        <v>19366.735000000001</v>
+        <v>4422.7610000000004</v>
       </c>
       <c r="I4">
-        <v>16278.474</v>
+        <v>3650.2779999999998</v>
       </c>
       <c r="J4">
-        <v>596.29600000000005</v>
+        <v>38.615000000000002</v>
       </c>
       <c r="K4">
-        <v>217.792</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16576.099999999999</v>
+        <v>3650.2779999999998</v>
       </c>
       <c r="O4">
-        <v>17350.684000000001</v>
+        <v>3737.4169999999999</v>
       </c>
       <c r="P4">
-        <v>827.38800000000003</v>
+        <v>38.615000000000002</v>
       </c>
       <c r="Q4">
-        <v>215.15899999999999</v>
+        <v>-527.11400000000003</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>1428</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2016.0509999999999</v>
+        <v>685.34400000000005</v>
       </c>
       <c r="U4">
-        <v>763.21600000000001</v>
+        <v>792.06600000000003</v>
       </c>
       <c r="V4">
-        <v>165.68299999999999</v>
+        <v>34.554000000000002</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>389.30900000000003</v>
+        <v>-420.375</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-11.725</v>
+        <v>-134.648</v>
       </c>
       <c r="AA4">
-        <v>65.75</v>
+        <v>24.132000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>37.570999999999998</v>
+        <v>18.602</v>
       </c>
       <c r="D5">
-        <v>230.297</v>
+        <v>70.989000000000004</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>230.297</v>
+        <v>70.989000000000004</v>
       </c>
       <c r="G5">
-        <v>2217.326</v>
+        <v>534.43799999999999</v>
       </c>
       <c r="H5">
-        <v>19195.363000000001</v>
+        <v>4147.8850000000002</v>
       </c>
       <c r="I5">
-        <v>16139.222</v>
+        <v>3309.0819999999999</v>
       </c>
       <c r="J5">
-        <v>458.46199999999999</v>
+        <v>64.102999999999994</v>
       </c>
       <c r="K5">
-        <v>47.247999999999998</v>
+        <v>40.936999999999998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16426.601999999999</v>
+        <v>3350.0189999999998</v>
       </c>
       <c r="O5">
-        <v>17003.035</v>
+        <v>3453.6149999999998</v>
       </c>
       <c r="P5">
-        <v>656.80499999999995</v>
+        <v>105.04</v>
       </c>
       <c r="Q5">
-        <v>-523.24699999999996</v>
+        <v>-332.49099999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2192.328</v>
+        <v>694.27</v>
       </c>
       <c r="U5">
-        <v>857.81700000000001</v>
+        <v>459.57499999999999</v>
       </c>
       <c r="V5">
-        <v>-81.617999999999995</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-95.653999999999996</v>
+        <v>-358.34100000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4.7329999999999997</v>
+        <v>24.972000000000001</v>
       </c>
       <c r="AA5">
-        <v>37.570999999999998</v>
+        <v>18.602</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>35.573999999999998</v>
+        <v>12.084</v>
       </c>
       <c r="D6">
-        <v>204.88399999999999</v>
+        <v>60.433999999999997</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>204.88399999999999</v>
+        <v>60.433999999999997</v>
       </c>
       <c r="G6">
-        <v>1415.211</v>
+        <v>526.15300000000002</v>
       </c>
       <c r="H6">
-        <v>19968.894</v>
+        <v>4172.0770000000002</v>
       </c>
       <c r="I6">
-        <v>16709.536</v>
+        <v>3380.9769999999999</v>
       </c>
       <c r="J6">
-        <v>458.24</v>
+        <v>64.325999999999993</v>
       </c>
       <c r="K6">
-        <v>16.867999999999999</v>
+        <v>41.203000000000003</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17139.010999999999</v>
+        <v>3422.18</v>
       </c>
       <c r="O6">
-        <v>17718.505000000001</v>
+        <v>3516.2869999999998</v>
       </c>
       <c r="P6">
-        <v>620.51599999999996</v>
+        <v>105.529</v>
       </c>
       <c r="Q6">
-        <v>-927.024</v>
+        <v>-19.042999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>1526</v>
+        <v>981</v>
       </c>
       <c r="T6">
-        <v>2250.3890000000001</v>
+        <v>655.79</v>
       </c>
       <c r="U6">
-        <v>848.34900000000005</v>
+        <v>440.53199999999998</v>
       </c>
       <c r="V6">
-        <v>76.099000000000004</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>589.83600000000001</v>
+        <v>28.504000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-949.77200000000005</v>
+        <v>-7.4729999999999999</v>
       </c>
       <c r="AA6">
-        <v>35.573999999999998</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>34.79</v>
+        <v>13.36</v>
       </c>
       <c r="D7">
-        <v>195.70099999999999</v>
+        <v>62.027999999999999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>195.70099999999999</v>
+        <v>62.027999999999999</v>
       </c>
       <c r="G7">
-        <v>1106.5909999999999</v>
+        <v>416.49400000000003</v>
       </c>
       <c r="H7">
-        <v>20818.337</v>
+        <v>3987.4749999999999</v>
       </c>
       <c r="I7">
-        <v>16716.882000000001</v>
+        <v>3181.5120000000002</v>
       </c>
       <c r="J7">
-        <v>457.79899999999998</v>
+        <v>64.55</v>
       </c>
       <c r="K7">
-        <v>860.69899999999996</v>
+        <v>41.469000000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17870.940999999999</v>
+        <v>3222.9810000000002</v>
       </c>
       <c r="O7">
-        <v>18475.633999999998</v>
+        <v>3320.2849999999999</v>
       </c>
       <c r="P7">
-        <v>1462.5340000000001</v>
+        <v>106.01900000000001</v>
       </c>
       <c r="Q7">
-        <v>-264.32400000000001</v>
+        <v>-101.006</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2342.703</v>
+        <v>667.19</v>
       </c>
       <c r="U7">
-        <v>612.13</v>
+        <v>339.52600000000001</v>
       </c>
       <c r="V7">
-        <v>-10.872</v>
+        <v>32.19</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>894.72799999999995</v>
+        <v>-196.953</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-998.60500000000002</v>
+        <v>48.475999999999999</v>
       </c>
       <c r="AA7">
-        <v>34.79</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>47.603000000000002</v>
+        <v>14.984999999999999</v>
       </c>
       <c r="D8">
-        <v>224.36099999999999</v>
+        <v>70.298000000000002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>224.36099999999999</v>
+        <v>70.298000000000002</v>
       </c>
       <c r="G8">
-        <v>1693.96</v>
+        <v>459.101</v>
       </c>
       <c r="H8">
-        <v>21289.772000000001</v>
+        <v>3831.77</v>
       </c>
       <c r="I8">
-        <v>18068.812000000002</v>
+        <v>2993.1790000000001</v>
       </c>
       <c r="J8">
-        <v>458.23200000000003</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="K8">
-        <v>21.300999999999998</v>
+        <v>41.734000000000002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18230.09</v>
+        <v>3034.913</v>
       </c>
       <c r="O8">
-        <v>18845.447</v>
+        <v>3142.3710000000001</v>
       </c>
       <c r="P8">
-        <v>479.53300000000002</v>
+        <v>106.619</v>
       </c>
       <c r="Q8">
-        <v>561.101</v>
+        <v>46.59</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>1562</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2444.3249999999998</v>
+        <v>689.399</v>
       </c>
       <c r="U8">
-        <v>648.53800000000001</v>
+        <v>386.11599999999999</v>
       </c>
       <c r="V8">
-        <v>4.7699999999999996</v>
+        <v>24.65</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>389.61</v>
+        <v>-186.43600000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>845.08199999999999</v>
+        <v>324.322</v>
       </c>
       <c r="AA8">
-        <v>47.603000000000002</v>
+        <v>14.984999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.289000000000001</v>
+        <v>13.096</v>
       </c>
       <c r="D9">
-        <v>216.78100000000001</v>
+        <v>60.984000000000002</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>216.78100000000001</v>
+        <v>60.984000000000002</v>
       </c>
       <c r="G9">
-        <v>1118.818</v>
+        <v>610.67499999999995</v>
       </c>
       <c r="H9">
-        <v>21576.934000000001</v>
+        <v>3863.5990000000002</v>
       </c>
       <c r="I9">
-        <v>17725.065999999999</v>
+        <v>3095.39</v>
       </c>
       <c r="J9">
-        <v>458.31400000000002</v>
+        <v>56.747</v>
       </c>
       <c r="K9">
-        <v>520.89300000000003</v>
+        <v>9.0579999999999998</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18376.983</v>
+        <v>3104.4479999999999</v>
       </c>
       <c r="O9">
-        <v>19021.588</v>
+        <v>3208.8270000000002</v>
       </c>
       <c r="P9">
-        <v>979.20699999999999</v>
+        <v>65.805000000000007</v>
       </c>
       <c r="Q9">
-        <v>-505.04500000000002</v>
+        <v>147.916</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>2555.346</v>
+        <v>654.77200000000005</v>
       </c>
       <c r="U9">
-        <v>651.30399999999997</v>
+        <v>534.03200000000004</v>
       </c>
       <c r="V9">
-        <v>133.708</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>193.084</v>
+        <v>11.465999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-418.80599999999998</v>
+        <v>140.964</v>
       </c>
       <c r="AA9">
-        <v>42.289000000000001</v>
+        <v>13.096</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>50.420999999999999</v>
+        <v>11.917</v>
       </c>
       <c r="D10">
-        <v>272.23700000000002</v>
+        <v>62.411999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>272.23700000000002</v>
+        <v>62.411999999999999</v>
       </c>
       <c r="G10">
-        <v>1229.7190000000001</v>
+        <v>513.47199999999998</v>
       </c>
       <c r="H10">
-        <v>22766.123</v>
+        <v>4183.1809999999996</v>
       </c>
       <c r="I10">
-        <v>19176.452000000001</v>
+        <v>3436.127</v>
       </c>
       <c r="J10">
-        <v>457.762</v>
+        <v>56.869</v>
       </c>
       <c r="K10">
-        <v>179.547</v>
+        <v>9.1270000000000007</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19508.076000000001</v>
+        <v>3445.2539999999999</v>
       </c>
       <c r="O10">
-        <v>20160.89</v>
+        <v>3549.6729999999998</v>
       </c>
       <c r="P10">
-        <v>637.30899999999997</v>
+        <v>65.995999999999995</v>
       </c>
       <c r="Q10">
-        <v>102.303</v>
+        <v>-91.442999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1615</v>
+        <v>1019</v>
       </c>
       <c r="T10">
-        <v>2605.2330000000002</v>
+        <v>633.50800000000004</v>
       </c>
       <c r="U10">
-        <v>763.45299999999997</v>
+        <v>442.589</v>
       </c>
       <c r="V10">
-        <v>74.474000000000004</v>
+        <v>23.039000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1106.873</v>
+        <v>308.09800000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-328.09199999999998</v>
+        <v>-217.518</v>
       </c>
       <c r="AA10">
-        <v>50.420999999999999</v>
+        <v>11.917</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>40.890999999999998</v>
+        <v>10.417999999999999</v>
       </c>
       <c r="D11">
-        <v>235.96</v>
+        <v>61.325000000000003</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>235.96</v>
+        <v>61.325000000000003</v>
       </c>
       <c r="G11">
-        <v>1779.444</v>
+        <v>579.68399999999997</v>
       </c>
       <c r="H11">
-        <v>22796</v>
+        <v>3988.0880000000002</v>
       </c>
       <c r="I11">
-        <v>19309.907999999999</v>
+        <v>3251.0940000000001</v>
       </c>
       <c r="J11">
-        <v>457.19400000000002</v>
+        <v>56.784999999999997</v>
       </c>
       <c r="K11">
-        <v>19.664000000000001</v>
+        <v>9.1959999999999997</v>
       </c>
       <c r="L11">
-        <v>-158.65</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19487.252</v>
+        <v>3260.29</v>
       </c>
       <c r="O11">
-        <v>20133.941999999999</v>
+        <v>3378.0949999999998</v>
       </c>
       <c r="P11">
-        <v>476.858</v>
+        <v>65.980999999999995</v>
       </c>
       <c r="Q11">
-        <v>510.26600000000002</v>
+        <v>56.398000000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>1663</v>
+        <v>985</v>
       </c>
       <c r="T11">
-        <v>2662.058</v>
+        <v>609.99300000000005</v>
       </c>
       <c r="U11">
-        <v>546.56200000000001</v>
+        <v>498.98700000000002</v>
       </c>
       <c r="V11">
-        <v>-1.044</v>
+        <v>18.465</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-21.015999999999998</v>
+        <v>-209.95</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>428.59399999999999</v>
+        <v>237.244</v>
       </c>
       <c r="AA11">
-        <v>40.890999999999998</v>
+        <v>10.417999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>48.584000000000003</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="D12">
-        <v>249.74799999999999</v>
+        <v>62.326999999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>249.74799999999999</v>
+        <v>62.326999999999998</v>
       </c>
       <c r="G12">
-        <v>1128.28</v>
+        <v>636.23699999999997</v>
       </c>
       <c r="H12">
-        <v>22153.901000000002</v>
+        <v>4294.59</v>
       </c>
       <c r="I12">
-        <v>18690.074000000001</v>
+        <v>3488.384</v>
       </c>
       <c r="J12">
-        <v>455.93799999999999</v>
+        <v>201.77500000000001</v>
       </c>
       <c r="K12">
-        <v>16.843</v>
+        <v>9.2639999999999993</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18864.440999999999</v>
+        <v>3497.6480000000001</v>
       </c>
       <c r="O12">
-        <v>19481.806</v>
+        <v>3814.9740000000002</v>
       </c>
       <c r="P12">
-        <v>472.78100000000001</v>
+        <v>211.03899999999999</v>
       </c>
       <c r="Q12">
-        <v>-645.99800000000005</v>
+        <v>44.823999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>1657</v>
+        <v>980</v>
       </c>
       <c r="T12">
-        <v>2672.0949999999998</v>
+        <v>479.61599999999999</v>
       </c>
       <c r="U12">
-        <v>542.64800000000002</v>
+        <v>543.81100000000004</v>
       </c>
       <c r="V12">
-        <v>33.415999999999997</v>
+        <v>63.811999999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-589.02200000000005</v>
+        <v>255.017</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>692.45500000000004</v>
+        <v>-377.14600000000002</v>
       </c>
       <c r="AA12">
-        <v>48.584000000000003</v>
+        <v>-0.57599999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>67.620999999999995</v>
+        <v>17.428999999999998</v>
       </c>
       <c r="D13">
-        <v>424.108</v>
+        <v>74.350999999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>424.108</v>
+        <v>74.350999999999999</v>
       </c>
       <c r="G13">
-        <v>2201.2530000000002</v>
+        <v>794.71600000000001</v>
       </c>
       <c r="H13">
-        <v>23740.864000000001</v>
+        <v>4259.8159999999998</v>
       </c>
       <c r="I13">
-        <v>19996.991000000002</v>
+        <v>3472.326</v>
       </c>
       <c r="J13">
-        <v>455.74400000000003</v>
+        <v>193.108</v>
       </c>
       <c r="K13">
-        <v>24.015999999999998</v>
+        <v>9.0540000000000003</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20194.556</v>
+        <v>3481.38</v>
       </c>
       <c r="O13">
-        <v>20817.22</v>
+        <v>3756.739</v>
       </c>
       <c r="P13">
-        <v>479.76</v>
+        <v>202.16200000000001</v>
       </c>
       <c r="Q13">
-        <v>1069.4929999999999</v>
+        <v>162.13900000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>1683</v>
+        <v>957</v>
       </c>
       <c r="T13">
-        <v>2923.6439999999998</v>
+        <v>503.077</v>
       </c>
       <c r="U13">
-        <v>574.71799999999996</v>
+        <v>705.95</v>
       </c>
       <c r="V13">
-        <v>65.67</v>
+        <v>-15.509</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1320.8779999999999</v>
+        <v>-25.584</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-116.42100000000001</v>
+        <v>146.298</v>
       </c>
       <c r="AA13">
-        <v>67.620999999999995</v>
+        <v>17.428999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>58.756999999999998</v>
+        <v>-15.294</v>
       </c>
       <c r="D14">
-        <v>397.041</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>397.041</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="G14">
-        <v>1823.8620000000001</v>
+        <v>912.65899999999999</v>
       </c>
       <c r="H14">
-        <v>26417.188999999998</v>
+        <v>4480.0079999999998</v>
       </c>
       <c r="I14">
-        <v>22472.978999999999</v>
+        <v>3666.8760000000002</v>
       </c>
       <c r="J14">
-        <v>455.21600000000001</v>
+        <v>195.44900000000001</v>
       </c>
       <c r="K14">
-        <v>19.093</v>
+        <v>17.960999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22699.931</v>
+        <v>3684.837</v>
       </c>
       <c r="O14">
-        <v>23337.861000000001</v>
+        <v>3982.259</v>
       </c>
       <c r="P14">
-        <v>474.30900000000003</v>
+        <v>213.41</v>
       </c>
       <c r="Q14">
-        <v>-403.96499999999997</v>
+        <v>89.046000000000006</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>1704</v>
+        <v>969</v>
       </c>
       <c r="T14">
-        <v>3079.328</v>
+        <v>497.74900000000002</v>
       </c>
       <c r="U14">
-        <v>1234.4159999999999</v>
+        <v>794.99599999999998</v>
       </c>
       <c r="V14">
-        <v>73.736000000000004</v>
+        <v>10.367000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>2486.1660000000002</v>
+        <v>214.65899999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1881.123</v>
+        <v>-57.121000000000002</v>
       </c>
       <c r="AA14">
-        <v>58.756999999999998</v>
+        <v>-15.294</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>90.95</v>
+        <v>13.221</v>
       </c>
       <c r="D15">
-        <v>506.05900000000003</v>
+        <v>72.977999999999994</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>506.05900000000003</v>
+        <v>72.977999999999994</v>
       </c>
       <c r="G15">
-        <v>4175.2</v>
+        <v>801.803</v>
       </c>
       <c r="H15">
-        <v>29711.039000000001</v>
+        <v>4492.2550000000001</v>
       </c>
       <c r="I15">
-        <v>25476.904999999999</v>
+        <v>3676.2930000000001</v>
       </c>
       <c r="J15">
-        <v>454.77</v>
+        <v>202.76300000000001</v>
       </c>
       <c r="K15">
-        <v>16.704000000000001</v>
+        <v>9.7609999999999992</v>
       </c>
       <c r="L15">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25683.16</v>
+        <v>3686.0540000000001</v>
       </c>
       <c r="O15">
-        <v>26344.058000000001</v>
+        <v>3959.8870000000002</v>
       </c>
       <c r="P15">
-        <v>471.47399999999999</v>
+        <v>212.524</v>
       </c>
       <c r="Q15">
-        <v>2323.6849999999999</v>
+        <v>-85.180999999999997</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>1737</v>
+        <v>969</v>
       </c>
       <c r="T15">
-        <v>3366.9810000000002</v>
+        <v>532.36800000000005</v>
       </c>
       <c r="U15">
-        <v>745.428</v>
+        <v>690.41899999999998</v>
       </c>
       <c r="V15">
-        <v>49.99</v>
+        <v>3.9780000000000002</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>2990.3139999999999</v>
+        <v>19.408999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-778.04300000000001</v>
+        <v>-102.32</v>
       </c>
       <c r="AA15">
-        <v>90.95</v>
+        <v>13.221</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>50.953000000000003</v>
+        <v>14.461</v>
       </c>
       <c r="D16">
-        <v>217.22800000000001</v>
+        <v>90.006</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>217.22800000000001</v>
+        <v>90.006</v>
       </c>
       <c r="G16">
-        <v>2993.96</v>
+        <v>665.35900000000004</v>
       </c>
       <c r="H16">
-        <v>33309.016000000003</v>
+        <v>4857.5209999999997</v>
       </c>
       <c r="I16">
-        <v>28352.546999999999</v>
+        <v>4005.386</v>
       </c>
       <c r="J16">
-        <v>454.46199999999999</v>
+        <v>205.80500000000001</v>
       </c>
       <c r="K16">
-        <v>18.074000000000002</v>
+        <v>34.262999999999998</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28712.609</v>
+        <v>4039.6489999999999</v>
       </c>
       <c r="O16">
-        <v>29370.991999999998</v>
+        <v>4315.3519999999999</v>
       </c>
       <c r="P16">
-        <v>472.536</v>
+        <v>240.06800000000001</v>
       </c>
       <c r="Q16">
-        <v>-1212.633</v>
+        <v>-115.571</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>1786</v>
+        <v>991</v>
       </c>
       <c r="T16">
-        <v>3938.0239999999999</v>
+        <v>542.16899999999998</v>
       </c>
       <c r="U16">
-        <v>896.06700000000001</v>
+        <v>544.63400000000001</v>
       </c>
       <c r="V16">
-        <v>168.09899999999999</v>
+        <v>23.206</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>3348.5509999999999</v>
+        <v>373.27199999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-4211.268</v>
+        <v>-388.93200000000002</v>
       </c>
       <c r="AA16">
-        <v>50.953000000000003</v>
+        <v>14.461</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>63.976999999999997</v>
+        <v>15.391</v>
       </c>
       <c r="D17">
-        <v>284.12200000000001</v>
+        <v>82.381</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>284.12200000000001</v>
+        <v>82.381</v>
       </c>
       <c r="G17">
-        <v>2187.5219999999999</v>
+        <v>574.86099999999999</v>
       </c>
       <c r="H17">
-        <v>36041.006999999998</v>
+        <v>4930.6329999999998</v>
       </c>
       <c r="I17">
-        <v>31123.134999999998</v>
+        <v>4037.6149999999998</v>
       </c>
       <c r="J17">
-        <v>453.76400000000001</v>
+        <v>196.096</v>
       </c>
       <c r="K17">
-        <v>24.78</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>31438.651999999998</v>
+        <v>4047.665</v>
       </c>
       <c r="O17">
-        <v>32100.991000000002</v>
+        <v>4343.8329999999996</v>
       </c>
       <c r="P17">
-        <v>478.54399999999998</v>
+        <v>206.14599999999999</v>
       </c>
       <c r="Q17">
-        <v>-777.29399999999998</v>
+        <v>-94.114999999999995</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>1881</v>
+        <v>1019</v>
       </c>
       <c r="T17">
-        <v>3940.0160000000001</v>
+        <v>586.79999999999995</v>
       </c>
       <c r="U17">
-        <v>938.70299999999997</v>
+        <v>449.43</v>
       </c>
       <c r="V17">
-        <v>18.285</v>
+        <v>35.26</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>2735.4639999999999</v>
+        <v>8.3469999999999995</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-2860.1680000000001</v>
+        <v>-18.295000000000002</v>
       </c>
       <c r="AA17">
-        <v>63.976999999999997</v>
+        <v>15.391</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>57.99</v>
+        <v>20.792999999999999</v>
       </c>
       <c r="D18">
-        <v>361.93900000000002</v>
+        <v>99.694999999999993</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>361.93900000000002</v>
+        <v>99.694999999999993</v>
       </c>
       <c r="G18">
-        <v>2120.857</v>
+        <v>770.22299999999996</v>
       </c>
       <c r="H18">
-        <v>39337.868999999999</v>
+        <v>5145.6790000000001</v>
       </c>
       <c r="I18">
-        <v>34343.499000000003</v>
+        <v>4219.5140000000001</v>
       </c>
       <c r="J18">
-        <v>451.36200000000002</v>
+        <v>196.21</v>
       </c>
       <c r="K18">
-        <v>38.892000000000003</v>
+        <v>9.82</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>34598.231</v>
+        <v>4229.3339999999998</v>
       </c>
       <c r="O18">
-        <v>35286.135000000002</v>
+        <v>4533.0460000000003</v>
       </c>
       <c r="P18">
-        <v>490.25400000000002</v>
+        <v>206.03</v>
       </c>
       <c r="Q18">
-        <v>-61.523000000000003</v>
+        <v>86.772000000000006</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>1914</v>
+        <v>1028</v>
       </c>
       <c r="T18">
-        <v>4051.7339999999999</v>
+        <v>612.63300000000004</v>
       </c>
       <c r="U18">
-        <v>1532.0640000000001</v>
+        <v>627.21799999999996</v>
       </c>
       <c r="V18">
-        <v>19.143000000000001</v>
+        <v>31.891999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>3176.32</v>
+        <v>172.86099999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-867.64499999999998</v>
+        <v>-30.936</v>
       </c>
       <c r="AA18">
-        <v>57.99</v>
+        <v>20.792999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>88.516000000000005</v>
+        <v>22.936</v>
       </c>
       <c r="D19">
-        <v>355.99700000000001</v>
+        <v>98.308999999999997</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>355.99700000000001</v>
+        <v>98.308999999999997</v>
       </c>
       <c r="G19">
-        <v>1874.739</v>
+        <v>584.88</v>
       </c>
       <c r="H19">
-        <v>39695.99</v>
+        <v>5070.0240000000003</v>
       </c>
       <c r="I19">
-        <v>33851.574999999997</v>
+        <v>4156.2749999999996</v>
       </c>
       <c r="J19">
-        <v>802.91700000000003</v>
+        <v>195.68100000000001</v>
       </c>
       <c r="K19">
-        <v>126.65900000000001</v>
+        <v>11.914999999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>34366.557000000001</v>
+        <v>4168.1899999999996</v>
       </c>
       <c r="O19">
-        <v>35418.758999999998</v>
+        <v>4457.9059999999999</v>
       </c>
       <c r="P19">
-        <v>929.57600000000002</v>
+        <v>207.596</v>
       </c>
       <c r="Q19">
-        <v>-547.16800000000001</v>
+        <v>-172.18600000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>1965</v>
+        <v>1032</v>
       </c>
       <c r="T19">
-        <v>4277.2309999999998</v>
+        <v>612.11800000000005</v>
       </c>
       <c r="U19">
-        <v>835.976</v>
+        <v>455.03199999999998</v>
       </c>
       <c r="V19">
-        <v>53.206000000000003</v>
+        <v>11.94</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-62.164000000000001</v>
+        <v>-74.503</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-489.83199999999999</v>
+        <v>-77.218000000000004</v>
       </c>
       <c r="AA19">
-        <v>88.516000000000005</v>
+        <v>22.936</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>86.143000000000001</v>
+        <v>20.896000000000001</v>
       </c>
       <c r="D20">
-        <v>343.54500000000002</v>
+        <v>101.009</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>343.54500000000002</v>
+        <v>101.009</v>
       </c>
       <c r="G20">
-        <v>3040.2550000000001</v>
+        <v>664.79600000000005</v>
       </c>
       <c r="H20">
-        <v>40236.118000000002</v>
+        <v>5307.826</v>
       </c>
       <c r="I20">
-        <v>35626.964999999997</v>
+        <v>4373.1189999999997</v>
       </c>
       <c r="J20">
-        <v>802.45399999999995</v>
+        <v>197.499</v>
       </c>
       <c r="K20">
-        <v>35.811999999999998</v>
+        <v>11.417999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>35964.019999999997</v>
+        <v>4384.5370000000003</v>
       </c>
       <c r="O20">
-        <v>37046.646000000001</v>
+        <v>4676.8159999999998</v>
       </c>
       <c r="P20">
-        <v>838.26599999999996</v>
+        <v>208.917</v>
       </c>
       <c r="Q20">
-        <v>1361.704</v>
+        <v>83.212999999999994</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>1964</v>
+        <v>1034</v>
       </c>
       <c r="T20">
-        <v>3189.4720000000002</v>
+        <v>631.01</v>
       </c>
       <c r="U20">
-        <v>886.93799999999999</v>
+        <v>538.245</v>
       </c>
       <c r="V20">
-        <v>157.673</v>
+        <v>30.936</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1623.0070000000001</v>
+        <v>197.69499999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-649.38800000000003</v>
+        <v>-53.991999999999997</v>
       </c>
       <c r="AA20">
-        <v>86.143000000000001</v>
+        <v>20.896000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>81.733000000000004</v>
+        <v>23.059000000000001</v>
       </c>
       <c r="D21">
-        <v>329.73399999999998</v>
+        <v>101.23</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>329.73399999999998</v>
+        <v>101.23</v>
       </c>
       <c r="G21">
-        <v>2089.6790000000001</v>
+        <v>550.71799999999996</v>
       </c>
       <c r="H21">
-        <v>41730.982000000004</v>
+        <v>5369.0659999999998</v>
       </c>
       <c r="I21">
-        <v>37049.417000000001</v>
+        <v>4292.1390000000001</v>
       </c>
       <c r="J21">
-        <v>797.21100000000001</v>
+        <v>196.23099999999999</v>
       </c>
       <c r="K21">
-        <v>38.414000000000001</v>
+        <v>121.56</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>37351.196000000004</v>
+        <v>4413.6989999999996</v>
       </c>
       <c r="O21">
-        <v>38416.754000000001</v>
+        <v>4713.9030000000002</v>
       </c>
       <c r="P21">
-        <v>835.625</v>
+        <v>317.791</v>
       </c>
       <c r="Q21">
-        <v>-951.40499999999997</v>
+        <v>-119.554</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>2054</v>
+        <v>1030</v>
       </c>
       <c r="T21">
-        <v>3314.2280000000001</v>
+        <v>655.16300000000001</v>
       </c>
       <c r="U21">
-        <v>820.66099999999994</v>
+        <v>418.69099999999997</v>
       </c>
       <c r="V21">
-        <v>43.328000000000003</v>
+        <v>41.177999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1420.19</v>
+        <v>37.350999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1344.1279999999999</v>
+        <v>25.535</v>
       </c>
       <c r="AA21">
-        <v>81.733000000000004</v>
+        <v>23.059000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>87.512</v>
+        <v>25.646000000000001</v>
       </c>
       <c r="D22">
-        <v>352.31400000000002</v>
+        <v>116.003</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>352.31400000000002</v>
+        <v>116.003</v>
       </c>
       <c r="G22">
-        <v>1977.4380000000001</v>
+        <v>480.04</v>
       </c>
       <c r="H22">
-        <v>44686.703000000001</v>
+        <v>5541.7150000000001</v>
       </c>
       <c r="I22">
-        <v>39142.775999999998</v>
+        <v>4252.7299999999996</v>
       </c>
       <c r="J22">
-        <v>796.702</v>
+        <v>195.83199999999999</v>
       </c>
       <c r="K22">
-        <v>805.63699999999994</v>
+        <v>279.47500000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>40254.245999999999</v>
+        <v>4532.2049999999999</v>
       </c>
       <c r="O22">
-        <v>41353.472000000002</v>
+        <v>4852.9579999999996</v>
       </c>
       <c r="P22">
-        <v>1602.3389999999999</v>
+        <v>475.30700000000002</v>
       </c>
       <c r="Q22">
-        <v>-170.88800000000001</v>
+        <v>43.406999999999996</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2089</v>
+        <v>1033</v>
       </c>
       <c r="T22">
-        <v>3333.2310000000002</v>
+        <v>688.75699999999995</v>
       </c>
       <c r="U22">
-        <v>1099.7650000000001</v>
+        <v>396.089</v>
       </c>
       <c r="V22">
-        <v>84.99</v>
+        <v>29.51</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2867.7489999999998</v>
+        <v>128.666</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1684.8050000000001</v>
+        <v>94.064999999999998</v>
       </c>
       <c r="AA22">
-        <v>87.512</v>
+        <v>25.646000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>79.174000000000007</v>
+        <v>22.271000000000001</v>
       </c>
       <c r="D23">
-        <v>334.08</v>
+        <v>109.754</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>334.08</v>
+        <v>109.754</v>
       </c>
       <c r="G23">
-        <v>2271.645</v>
+        <v>717.375</v>
       </c>
       <c r="H23">
-        <v>43573.902000000002</v>
+        <v>5446.268</v>
       </c>
       <c r="I23">
-        <v>38759.720999999998</v>
+        <v>4148.5060000000003</v>
       </c>
       <c r="J23">
-        <v>796.57</v>
+        <v>197.37</v>
       </c>
       <c r="K23">
-        <v>52.691000000000003</v>
+        <v>292.178</v>
       </c>
       <c r="L23">
-        <v>-774.9</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>38945.741000000002</v>
+        <v>4440.6840000000002</v>
       </c>
       <c r="O23">
-        <v>40062.862000000001</v>
+        <v>4721.7849999999999</v>
       </c>
       <c r="P23">
-        <v>849.26099999999997</v>
+        <v>489.548</v>
       </c>
       <c r="Q23">
-        <v>365.255</v>
+        <v>87.897000000000006</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>2170</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>3511.04</v>
+        <v>724.48299999999995</v>
       </c>
       <c r="U23">
-        <v>1101.0909999999999</v>
+        <v>549.995</v>
       </c>
       <c r="V23">
-        <v>56.061</v>
+        <v>-3.6739999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-1164.884</v>
+        <v>-72.802999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2479.6970000000001</v>
+        <v>76.766999999999996</v>
       </c>
       <c r="AA23">
-        <v>79.174000000000007</v>
+        <v>22.271000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>92.963999999999999</v>
+        <v>13.593999999999999</v>
       </c>
       <c r="D24">
-        <v>359.36599999999999</v>
+        <v>122.13800000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>359.36599999999999</v>
+        <v>122.13800000000001</v>
       </c>
       <c r="G24">
-        <v>2309.221</v>
+        <v>751.01300000000003</v>
       </c>
       <c r="H24">
-        <v>43132.654000000002</v>
+        <v>5471.6509999999998</v>
       </c>
       <c r="I24">
-        <v>37596.567000000003</v>
+        <v>3913.3040000000001</v>
       </c>
       <c r="J24">
-        <v>796.32899999999995</v>
+        <v>197.84700000000001</v>
       </c>
       <c r="K24">
-        <v>558.41399999999999</v>
+        <v>533.81100000000004</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>38395.031000000003</v>
+        <v>4447.1149999999998</v>
       </c>
       <c r="O24">
-        <v>39498.860999999997</v>
+        <v>4750.4970000000003</v>
       </c>
       <c r="P24">
-        <v>1354.7429999999999</v>
+        <v>731.65800000000002</v>
       </c>
       <c r="Q24">
-        <v>-14.055</v>
+        <v>-5.7240000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>2188</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>3633.7930000000001</v>
+        <v>721.154</v>
       </c>
       <c r="U24">
-        <v>996.39800000000002</v>
+        <v>544.27099999999996</v>
       </c>
       <c r="V24">
-        <v>86.006</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-654.13400000000001</v>
+        <v>-18.733000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1658.34</v>
+        <v>181.80699999999999</v>
       </c>
       <c r="AA24">
-        <v>92.963999999999999</v>
+        <v>13.593999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>111.081</v>
+        <v>25.17</v>
       </c>
       <c r="D25">
-        <v>413.29700000000003</v>
+        <v>118.009</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>413.29700000000003</v>
+        <v>118.009</v>
       </c>
       <c r="G25">
-        <v>3024.64</v>
+        <v>671.46500000000003</v>
       </c>
       <c r="H25">
-        <v>43274.036999999997</v>
+        <v>5873.1090000000004</v>
       </c>
       <c r="I25">
-        <v>38189.415999999997</v>
+        <v>3974.46</v>
       </c>
       <c r="J25">
-        <v>748.87699999999995</v>
+        <v>202.08500000000001</v>
       </c>
       <c r="K25">
-        <v>51.259</v>
+        <v>809.76700000000005</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>38508.357000000004</v>
+        <v>4784.2269999999999</v>
       </c>
       <c r="O25">
-        <v>39550.720000000001</v>
+        <v>5120.6409999999996</v>
       </c>
       <c r="P25">
-        <v>847.23</v>
+        <v>1011.852</v>
       </c>
       <c r="Q25">
-        <v>666.86199999999997</v>
+        <v>56.23</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>2280</v>
+        <v>1120</v>
       </c>
       <c r="T25">
-        <v>3723.317</v>
+        <v>752.46799999999996</v>
       </c>
       <c r="U25">
-        <v>1057.5999999999999</v>
+        <v>600.50099999999998</v>
       </c>
       <c r="V25">
-        <v>130.93700000000001</v>
+        <v>49.072000000000003</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>91.632000000000005</v>
+        <v>320.85599999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>737.23099999999999</v>
+        <v>67.881</v>
       </c>
       <c r="AA25">
-        <v>111.081</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>99.465999999999994</v>
+        <v>28.35</v>
       </c>
       <c r="D26">
-        <v>393.65300000000002</v>
+        <v>133.88499999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>393.65300000000002</v>
+        <v>133.88499999999999</v>
       </c>
       <c r="G26">
-        <v>2982.6689999999999</v>
+        <v>713.36099999999999</v>
       </c>
       <c r="H26">
-        <v>44683.66</v>
+        <v>6081.4520000000002</v>
       </c>
       <c r="I26">
-        <v>38979.868000000002</v>
+        <v>4057.625</v>
       </c>
       <c r="J26">
-        <v>749.05799999999999</v>
+        <v>352.46499999999997</v>
       </c>
       <c r="K26">
-        <v>577.10599999999999</v>
+        <v>683.53700000000003</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>39807.480000000003</v>
+        <v>4791.3059999999996</v>
       </c>
       <c r="O26">
-        <v>40906.623</v>
+        <v>5286.9229999999998</v>
       </c>
       <c r="P26">
-        <v>1372.81</v>
+        <v>1036.002</v>
       </c>
       <c r="Q26">
-        <v>24.431000000000001</v>
+        <v>32.084000000000003</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2311</v>
+        <v>1140</v>
       </c>
       <c r="T26">
-        <v>3777.0369999999998</v>
+        <v>794.529</v>
       </c>
       <c r="U26">
-        <v>2111.7199999999998</v>
+        <v>591.851</v>
       </c>
       <c r="V26">
-        <v>164.97300000000001</v>
+        <v>44.261000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1316.558</v>
+        <v>113.027</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-649.33199999999999</v>
+        <v>34.521999999999998</v>
       </c>
       <c r="AA26">
-        <v>99.465999999999994</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>101.483</v>
+        <v>28.390999999999998</v>
       </c>
       <c r="D27">
-        <v>396.91800000000001</v>
+        <v>141.232</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>396.91800000000001</v>
+        <v>141.232</v>
       </c>
       <c r="G27">
-        <v>4232.4459999999999</v>
+        <v>602.01900000000001</v>
       </c>
       <c r="H27">
-        <v>46413.339</v>
+        <v>5847.8559999999998</v>
       </c>
       <c r="I27">
-        <v>41079.699999999997</v>
+        <v>3875.1990000000001</v>
       </c>
       <c r="J27">
-        <v>749.24199999999996</v>
+        <v>353.15100000000001</v>
       </c>
       <c r="K27">
-        <v>60.911999999999999</v>
+        <v>583.90099999999995</v>
       </c>
       <c r="L27">
-        <v>-507.505</v>
+        <v>-99.635999999999996</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>41355.409</v>
+        <v>4459.1000000000004</v>
       </c>
       <c r="O27">
-        <v>42509.883000000002</v>
+        <v>4999.3980000000001</v>
       </c>
       <c r="P27">
-        <v>856.37699999999995</v>
+        <v>937.05200000000002</v>
       </c>
       <c r="Q27">
-        <v>1249.9290000000001</v>
+        <v>-67.710999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>2347</v>
+        <v>1156</v>
       </c>
       <c r="T27">
-        <v>3903.4560000000001</v>
+        <v>848.45799999999997</v>
       </c>
       <c r="U27">
-        <v>1217.6420000000001</v>
+        <v>483.58199999999999</v>
       </c>
       <c r="V27">
-        <v>111.937</v>
+        <v>13.414</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1599.4090000000001</v>
+        <v>-253.80500000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>68.635999999999996</v>
+        <v>54.881</v>
       </c>
       <c r="AA27">
-        <v>101.483</v>
+        <v>28.390999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>123.193</v>
+        <v>22.864999999999998</v>
       </c>
       <c r="D28">
-        <v>455.41800000000001</v>
+        <v>143.964</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>455.41800000000001</v>
+        <v>143.964</v>
       </c>
       <c r="G28">
-        <v>4620.5959999999995</v>
+        <v>1247.9090000000001</v>
       </c>
       <c r="H28">
-        <v>48400.379000000001</v>
+        <v>6605.08</v>
       </c>
       <c r="I28">
-        <v>42465.290999999997</v>
+        <v>4406.4889999999996</v>
       </c>
       <c r="J28">
-        <v>749.42899999999997</v>
+        <v>838.11599999999999</v>
       </c>
       <c r="K28">
-        <v>88.405000000000001</v>
+        <v>305</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>43168.440999999999</v>
+        <v>4711.4889999999996</v>
       </c>
       <c r="O28">
-        <v>44360.343999999997</v>
+        <v>5718.9979999999996</v>
       </c>
       <c r="P28">
-        <v>837.83399999999995</v>
+        <v>1143.116</v>
       </c>
       <c r="Q28">
-        <v>58.564999999999998</v>
+        <v>441.40499999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>4040.0349999999999</v>
+        <v>886.08199999999999</v>
       </c>
       <c r="U28">
-        <v>1861.8230000000001</v>
+        <v>866.78800000000001</v>
       </c>
       <c r="V28">
-        <v>284.78399999999999</v>
+        <v>52.706000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>1331.894</v>
+        <v>736.04200000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1000.614</v>
+        <v>62.154000000000003</v>
       </c>
       <c r="AA28">
-        <v>123.193</v>
+        <v>22.864999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>148.62</v>
+        <v>38.116</v>
       </c>
       <c r="D29">
-        <v>509.23</v>
+        <v>158.56</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>509.23</v>
+        <v>158.56</v>
       </c>
       <c r="G29">
-        <v>4159.1239999999998</v>
+        <v>915.31799999999998</v>
       </c>
       <c r="H29">
-        <v>50754.286999999997</v>
+        <v>6304.0879999999997</v>
       </c>
       <c r="I29">
-        <v>44812.033000000003</v>
+        <v>3973.24</v>
       </c>
       <c r="J29">
-        <v>749.61800000000005</v>
+        <v>855.37</v>
       </c>
       <c r="K29">
-        <v>105.756</v>
+        <v>370</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>45291.074999999997</v>
+        <v>4343.24</v>
       </c>
       <c r="O29">
-        <v>46556.989000000001</v>
+        <v>5395.3230000000003</v>
       </c>
       <c r="P29">
-        <v>855.37400000000002</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="Q29">
-        <v>-298.673</v>
+        <v>-347.16</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>2433</v>
+        <v>1151</v>
       </c>
       <c r="T29">
-        <v>4197.2979999999998</v>
+        <v>908.76499999999999</v>
       </c>
       <c r="U29">
-        <v>1892.9069999999999</v>
+        <v>579.61400000000003</v>
       </c>
       <c r="V29">
-        <v>124.352</v>
+        <v>64.302999999999997</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2344.8690000000001</v>
+        <v>-410.66899999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1559.376</v>
+        <v>57.073</v>
       </c>
       <c r="AA29">
-        <v>148.62</v>
+        <v>38.116</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>117.21</v>
+        <v>34.265999999999998</v>
       </c>
       <c r="D30">
-        <v>523.73</v>
+        <v>141.72499999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>523.73</v>
+        <v>141.72499999999999</v>
       </c>
       <c r="G30">
-        <v>3561.6840000000002</v>
+        <v>819.03599999999994</v>
       </c>
       <c r="H30">
-        <v>51214.466999999997</v>
+        <v>6692.4560000000001</v>
       </c>
       <c r="I30">
-        <v>44254.074999999997</v>
+        <v>4611.2030000000004</v>
       </c>
       <c r="J30">
-        <v>695.49199999999996</v>
+        <v>675.98500000000001</v>
       </c>
       <c r="K30">
-        <v>1142.3109999999999</v>
+        <v>90</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>45766.724000000002</v>
+        <v>4967.9560000000001</v>
       </c>
       <c r="O30">
-        <v>46895.052000000003</v>
+        <v>5775.7</v>
       </c>
       <c r="P30">
-        <v>1837.8030000000001</v>
+        <v>965.25400000000002</v>
       </c>
       <c r="Q30">
-        <v>-632.49599999999998</v>
+        <v>24.943999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2438</v>
+        <v>1128</v>
       </c>
       <c r="T30">
-        <v>4319.415</v>
+        <v>916.75599999999997</v>
       </c>
       <c r="U30">
-        <v>2277.9639999999999</v>
+        <v>589.88199999999995</v>
       </c>
       <c r="V30">
-        <v>125.792</v>
+        <v>44.457000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>424.78399999999999</v>
+        <v>320.536</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-261.15899999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="AA30">
-        <v>117.21</v>
+        <v>34.265999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>194.96100000000001</v>
+        <v>27.117999999999999</v>
       </c>
       <c r="D31">
-        <v>547.40899999999999</v>
+        <v>124.62</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>547.40899999999999</v>
+        <v>124.62</v>
       </c>
       <c r="G31">
-        <v>3324.6439999999998</v>
+        <v>796.15</v>
       </c>
       <c r="H31">
-        <v>53500.786999999997</v>
+        <v>6897.3029999999999</v>
       </c>
       <c r="I31">
-        <v>45936.531999999999</v>
+        <v>4769.2129999999997</v>
       </c>
       <c r="J31">
-        <v>695.73099999999999</v>
+        <v>693.74099999999999</v>
       </c>
       <c r="K31">
-        <v>1219.8340000000001</v>
+        <v>135.91900000000001</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="N31">
-        <v>47602.027000000002</v>
+        <v>5129.1499999999996</v>
       </c>
       <c r="O31">
-        <v>48941.063000000002</v>
+        <v>5949.4179999999997</v>
       </c>
       <c r="P31">
-        <v>1915.5650000000001</v>
+        <v>1029.1079999999999</v>
       </c>
       <c r="Q31">
-        <v>-303.69099999999997</v>
+        <v>-7.931</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>2512</v>
+        <v>1190</v>
       </c>
       <c r="T31">
-        <v>4559.7240000000002</v>
+        <v>947.88499999999999</v>
       </c>
       <c r="U31">
-        <v>1866.0039999999999</v>
+        <v>624.41300000000001</v>
       </c>
       <c r="V31">
-        <v>348.404</v>
+        <v>28.33</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1744.558</v>
+        <v>186.78800000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-924.93799999999999</v>
+        <v>-17.866</v>
       </c>
       <c r="AA31">
-        <v>194.96100000000001</v>
+        <v>27.117999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>237.798</v>
+        <v>21.135999999999999</v>
       </c>
       <c r="D32">
-        <v>630.05200000000002</v>
+        <v>122.96</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>630.05200000000002</v>
+        <v>122.96</v>
       </c>
       <c r="G32">
-        <v>3395.2840000000001</v>
+        <v>742.34699999999998</v>
       </c>
       <c r="H32">
-        <v>55867.745000000003</v>
+        <v>7309.8710000000001</v>
       </c>
       <c r="I32">
-        <v>48887.294999999998</v>
+        <v>4863.58</v>
       </c>
       <c r="J32">
-        <v>695.97199999999998</v>
+        <v>925.87800000000004</v>
       </c>
       <c r="K32">
-        <v>514.45000000000005</v>
+        <v>348.20699999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>49782.69</v>
+        <v>5298.4070000000002</v>
       </c>
       <c r="O32">
-        <v>51062.904000000002</v>
+        <v>6333.3689999999997</v>
       </c>
       <c r="P32">
-        <v>1210.422</v>
+        <v>1324.085</v>
       </c>
       <c r="Q32">
-        <v>92.716999999999999</v>
+        <v>-46.463000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>2626</v>
+        <v>1209</v>
       </c>
       <c r="T32">
-        <v>4804.8410000000003</v>
+        <v>976.50199999999995</v>
       </c>
       <c r="U32">
-        <v>2028.922</v>
+        <v>560.399</v>
       </c>
       <c r="V32">
-        <v>-1.024</v>
+        <v>19.518999999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>2267.1950000000002</v>
+        <v>407.33199999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-774.78099999999995</v>
+        <v>-181.04</v>
       </c>
       <c r="AA32">
-        <v>237.798</v>
+        <v>21.013999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>274.81700000000001</v>
+        <v>25.917999999999999</v>
       </c>
       <c r="D33">
-        <v>686.11800000000005</v>
+        <v>121.367</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>686.11800000000005</v>
+        <v>121.367</v>
       </c>
       <c r="G33">
-        <v>4562.4960000000001</v>
+        <v>872.68100000000004</v>
       </c>
       <c r="H33">
-        <v>58139.733999999997</v>
+        <v>8070.9449999999997</v>
       </c>
       <c r="I33">
-        <v>48596.110999999997</v>
+        <v>5432.6090000000004</v>
       </c>
       <c r="J33">
-        <v>696.21699999999998</v>
+        <v>931.94600000000003</v>
       </c>
       <c r="K33">
-        <v>2722.5729999999999</v>
+        <v>436.64499999999998</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>51833.123</v>
+        <v>5966.9179999999997</v>
       </c>
       <c r="O33">
-        <v>53069.688999999998</v>
+        <v>7015.2950000000001</v>
       </c>
       <c r="P33">
-        <v>3418.79</v>
+        <v>1418.5909999999999</v>
       </c>
       <c r="Q33">
-        <v>1107.04</v>
+        <v>121.733</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>2836</v>
+        <v>1237</v>
       </c>
       <c r="T33">
-        <v>5070.0450000000001</v>
+        <v>1055.6500000000001</v>
       </c>
       <c r="U33">
-        <v>1599.96</v>
+        <v>665.61599999999999</v>
       </c>
       <c r="V33">
-        <v>356.524</v>
+        <v>68.138999999999996</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1916.7049999999999</v>
+        <v>716.75800000000004</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>349.12099999999998</v>
+        <v>-3.5179999999999998</v>
       </c>
       <c r="AA33">
-        <v>274.81700000000001</v>
+        <v>25.917999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>266.26400000000001</v>
+        <v>0.114</v>
       </c>
       <c r="D34">
-        <v>687.52300000000002</v>
+        <v>51.113</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>687.52300000000002</v>
+        <v>51.113</v>
       </c>
       <c r="G34">
-        <v>4235.68</v>
+        <v>2671.6880000000001</v>
       </c>
       <c r="H34">
-        <v>56927.978999999999</v>
+        <v>10018.280000000001</v>
       </c>
       <c r="I34">
-        <v>49328.9</v>
+        <v>7473.4719999999998</v>
       </c>
       <c r="J34">
-        <v>696.46500000000003</v>
+        <v>894.02</v>
       </c>
       <c r="K34">
-        <v>729.46199999999999</v>
+        <v>94.751999999999995</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>50453.122000000003</v>
+        <v>7705.5839999999998</v>
       </c>
       <c r="O34">
-        <v>51663.135999999999</v>
+        <v>8706.5679999999993</v>
       </c>
       <c r="P34">
-        <v>1425.9269999999999</v>
+        <v>1090.175</v>
       </c>
       <c r="Q34">
-        <v>-247.602</v>
+        <v>1686.212</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2900</v>
+        <v>1244</v>
       </c>
       <c r="T34">
-        <v>5264.8429999999998</v>
+        <v>1311.712</v>
       </c>
       <c r="U34">
-        <v>2992.0619999999999</v>
+        <v>2257.3150000000001</v>
       </c>
       <c r="V34">
-        <v>229.65799999999999</v>
+        <v>49.726999999999997</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1413.181</v>
+        <v>1873.1410000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1771.4970000000001</v>
+        <v>12.551</v>
       </c>
       <c r="AA34">
-        <v>266.26400000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>288.73200000000003</v>
+        <v>-8.2349999999999994</v>
       </c>
       <c r="D35">
-        <v>764.71100000000001</v>
+        <v>42.463999999999999</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>764.71100000000001</v>
+        <v>42.463999999999999</v>
       </c>
       <c r="G35">
-        <v>7967.5339999999997</v>
+        <v>3869.93</v>
       </c>
       <c r="H35">
-        <v>60160.285000000003</v>
+        <v>10958.768</v>
       </c>
       <c r="I35">
-        <v>52327.197</v>
+        <v>8482.3240000000005</v>
       </c>
       <c r="J35">
-        <v>696.71500000000003</v>
+        <v>863.14499999999998</v>
       </c>
       <c r="K35">
-        <v>106.06699999999999</v>
+        <v>83.787999999999997</v>
       </c>
       <c r="L35">
-        <v>-616.95699999999999</v>
+        <v>-5.67</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.505</v>
       </c>
       <c r="N35">
-        <v>53111.913</v>
+        <v>8686.7860000000001</v>
       </c>
       <c r="O35">
-        <v>54676.462</v>
+        <v>9666.3709999999992</v>
       </c>
       <c r="P35">
-        <v>1007.949</v>
+        <v>1047.963</v>
       </c>
       <c r="Q35">
-        <v>3495.3440000000001</v>
+        <v>1210.261</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>3250</v>
+        <v>1262</v>
       </c>
       <c r="T35">
-        <v>5483.8230000000003</v>
+        <v>1292.3969999999999</v>
       </c>
       <c r="U35">
-        <v>2068.1280000000002</v>
+        <v>486.86099999999999</v>
       </c>
       <c r="V35">
-        <v>340.75</v>
+        <v>13.257999999999999</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-2.056</v>
       </c>
       <c r="X35">
-        <v>2250.1669999999999</v>
+        <v>1014.677</v>
       </c>
       <c r="Y35">
-        <v>205.167</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1515.4839999999999</v>
+        <v>-276.98899999999998</v>
       </c>
       <c r="AA35">
-        <v>288.73200000000003</v>
+        <v>-8.2349999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>317.98700000000002</v>
+        <v>11.337999999999999</v>
       </c>
       <c r="D36">
-        <v>839.20699999999999</v>
+        <v>98.563000000000002</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>839.20699999999999</v>
+        <v>98.563000000000002</v>
       </c>
       <c r="G36">
-        <v>10046.413</v>
+        <v>3931.067</v>
       </c>
       <c r="H36">
-        <v>63773.739000000001</v>
+        <v>11465.887000000001</v>
       </c>
       <c r="I36">
-        <v>55610.54</v>
+        <v>8994.5830000000005</v>
       </c>
       <c r="J36">
-        <v>696.97</v>
+        <v>858.99099999999999</v>
       </c>
       <c r="K36">
-        <v>136.90299999999999</v>
+        <v>54.194000000000003</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>56533.521999999997</v>
+        <v>9124.3809999999994</v>
       </c>
       <c r="O36">
-        <v>58067.563999999998</v>
+        <v>10140.677</v>
       </c>
       <c r="P36">
-        <v>1029.1990000000001</v>
+        <v>963.83500000000004</v>
       </c>
       <c r="Q36">
-        <v>1954.0419999999999</v>
+        <v>62.384</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>3314</v>
+        <v>1260</v>
       </c>
       <c r="T36">
-        <v>5706.1750000000002</v>
+        <v>1325.21</v>
       </c>
       <c r="U36">
-        <v>2329.2469999999998</v>
+        <v>568.74599999999998</v>
       </c>
       <c r="V36">
-        <v>109.821</v>
+        <v>73.343999999999994</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-2.9380000000000002</v>
       </c>
       <c r="X36">
-        <v>3065.6689999999999</v>
+        <v>451.07900000000001</v>
       </c>
       <c r="Y36">
-        <v>195.32599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-866.71500000000003</v>
+        <v>-596.04399999999998</v>
       </c>
       <c r="AA36">
-        <v>317.98700000000002</v>
+        <v>11.337999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>267.28100000000001</v>
+        <v>24.163</v>
       </c>
       <c r="D37">
-        <v>778.11699999999996</v>
+        <v>123.095</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>778.11699999999996</v>
+        <v>123.095</v>
       </c>
       <c r="G37">
-        <v>8179.4139999999998</v>
+        <v>4341.0169999999998</v>
       </c>
       <c r="H37">
-        <v>68231.232999999993</v>
+        <v>12538.602999999999</v>
       </c>
       <c r="I37">
-        <v>59542.874000000003</v>
+        <v>10055.632</v>
       </c>
       <c r="J37">
-        <v>697.22699999999998</v>
+        <v>866.48500000000001</v>
       </c>
       <c r="K37">
-        <v>167.43799999999999</v>
+        <v>72.444999999999993</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>60677.627999999997</v>
+        <v>10158.555</v>
       </c>
       <c r="O37">
-        <v>62182.764000000003</v>
+        <v>11145.831</v>
       </c>
       <c r="P37">
-        <v>1057.2080000000001</v>
+        <v>939.19299999999998</v>
       </c>
       <c r="Q37">
-        <v>-2074.7289999999998</v>
+        <v>401.45800000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>3460</v>
+        <v>1259</v>
       </c>
       <c r="T37">
-        <v>6048.4690000000001</v>
+        <v>1392.7719999999999</v>
       </c>
       <c r="U37">
-        <v>2459.0770000000002</v>
+        <v>376.22899999999998</v>
       </c>
       <c r="V37">
-        <v>259.173</v>
+        <v>16.199000000000002</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-2.9380000000000002</v>
       </c>
       <c r="X37">
-        <v>3913.8530000000001</v>
+        <v>1047.5650000000001</v>
       </c>
       <c r="Y37">
-        <v>181.54900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-4392.1949999999997</v>
+        <v>-804.90200000000004</v>
       </c>
       <c r="AA37">
-        <v>267.28100000000001</v>
+        <v>24.163</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>262.85599999999999</v>
+        <v>20.744</v>
       </c>
       <c r="D38">
-        <v>838.58900000000006</v>
+        <v>125.59099999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>838.58900000000006</v>
+        <v>125.59099999999999</v>
       </c>
       <c r="G38">
-        <v>8189.4970000000003</v>
+        <v>3705.7919999999999</v>
       </c>
       <c r="H38">
-        <v>71004.903000000006</v>
+        <v>12841.398999999999</v>
       </c>
       <c r="I38">
-        <v>61757.807000000001</v>
+        <v>10331.937</v>
       </c>
       <c r="J38">
-        <v>347.98700000000002</v>
+        <v>856.65</v>
       </c>
       <c r="K38">
-        <v>155.41399999999999</v>
+        <v>74.263000000000005</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>63155.974000000002</v>
+        <v>10444.073</v>
       </c>
       <c r="O38">
-        <v>64383.822999999997</v>
+        <v>11367.289000000001</v>
       </c>
       <c r="P38">
-        <v>722.24800000000005</v>
+        <v>930.91300000000001</v>
       </c>
       <c r="Q38">
-        <v>-164.41300000000001</v>
+        <v>-597.97500000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3564</v>
+        <v>1258</v>
       </c>
       <c r="T38">
-        <v>6621.08</v>
+        <v>1474.11</v>
       </c>
       <c r="U38">
-        <v>6176.6589999999997</v>
+        <v>3420.2130000000002</v>
       </c>
       <c r="V38">
-        <v>454.38499999999999</v>
+        <v>-15.837999999999999</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-4.1779999999999999</v>
       </c>
       <c r="X38">
-        <v>2188.308</v>
+        <v>333.31</v>
       </c>
       <c r="Y38">
-        <v>218.84700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-686.87400000000002</v>
+        <v>-1032.481</v>
       </c>
       <c r="AA38">
-        <v>262.85599999999999</v>
+        <v>20.744</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>135.62200000000001</v>
+        <v>18.556999999999999</v>
       </c>
       <c r="D39">
-        <v>582.59100000000001</v>
+        <v>139.36799999999999</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>582.59100000000001</v>
+        <v>139.36799999999999</v>
       </c>
       <c r="G39">
-        <v>11262.32</v>
+        <v>4904.335</v>
       </c>
       <c r="H39">
-        <v>75009.64</v>
+        <v>14125.249</v>
       </c>
       <c r="I39">
-        <v>61911.957000000002</v>
+        <v>11513.294</v>
       </c>
       <c r="J39">
-        <v>348.07600000000002</v>
+        <v>859.71299999999997</v>
       </c>
       <c r="K39">
-        <v>3365.5859999999998</v>
+        <v>99.629000000000005</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>66440.676000000007</v>
+        <v>11642.32</v>
       </c>
       <c r="O39">
-        <v>67826.418999999994</v>
+        <v>12576.089</v>
       </c>
       <c r="P39">
-        <v>3940.933</v>
+        <v>959.34199999999998</v>
       </c>
       <c r="Q39">
-        <v>2779.665</v>
+        <v>1178.8499999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>3710</v>
+        <v>1271</v>
       </c>
       <c r="T39">
-        <v>7183.2209999999995</v>
+        <v>1549.16</v>
       </c>
       <c r="U39">
-        <v>1959.69</v>
+        <v>336.233</v>
       </c>
       <c r="V39">
-        <v>168.125</v>
+        <v>47.853000000000002</v>
       </c>
       <c r="W39">
-        <v>-3.3690000000000002</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>3210.5810000000001</v>
+        <v>1207.914</v>
       </c>
       <c r="Y39">
-        <v>192.96100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>2222.4560000000001</v>
+        <v>-407.738</v>
       </c>
       <c r="AA39">
-        <v>135.62200000000001</v>
+        <v>18.556999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>233.529</v>
+        <v>21.12</v>
       </c>
       <c r="D40">
-        <v>815.29399999999998</v>
+        <v>139.185</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>815.29399999999998</v>
+        <v>139.185</v>
       </c>
       <c r="G40">
-        <v>16095.132</v>
+        <v>4449.6779999999999</v>
       </c>
       <c r="H40">
-        <v>85730.985000000001</v>
+        <v>14903.986000000001</v>
       </c>
       <c r="I40">
-        <v>74505.763999999996</v>
+        <v>12140.413</v>
       </c>
       <c r="J40">
-        <v>843.22</v>
+        <v>633.51</v>
       </c>
       <c r="K40">
-        <v>232.13800000000001</v>
+        <v>44.734999999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>76279.574999999997</v>
+        <v>12478.700999999999</v>
       </c>
       <c r="O40">
-        <v>78262.672000000006</v>
+        <v>13277.031000000001</v>
       </c>
       <c r="P40">
-        <v>1314.7149999999999</v>
+        <v>926.37900000000002</v>
       </c>
       <c r="Q40">
-        <v>4640.6580000000004</v>
+        <v>-501.36</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>3984</v>
+        <v>1289</v>
       </c>
       <c r="T40">
-        <v>7468.3130000000001</v>
+        <v>1626.9549999999999</v>
       </c>
       <c r="U40">
-        <v>2885.058</v>
+        <v>464.80599999999998</v>
       </c>
       <c r="V40">
-        <v>577.35299999999995</v>
+        <v>47.139000000000003</v>
       </c>
       <c r="W40">
-        <v>-4.5940000000000003</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>9997.1319999999996</v>
+        <v>649.06700000000001</v>
       </c>
       <c r="Y40">
-        <v>214.88</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-5174.09</v>
+        <v>-952.83900000000006</v>
       </c>
       <c r="AA40">
-        <v>233.529</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>446.30700000000002</v>
+        <v>37.786999999999999</v>
       </c>
       <c r="D41">
-        <v>1097.3230000000001</v>
+        <v>181.60599999999999</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1097.3230000000001</v>
+        <v>181.60599999999999</v>
       </c>
       <c r="G41">
-        <v>17596.370999999999</v>
+        <v>4052.8470000000002</v>
       </c>
       <c r="H41">
-        <v>96916.770999999993</v>
+        <v>15660.069</v>
       </c>
       <c r="I41">
-        <v>84773.02</v>
+        <v>12414.945</v>
       </c>
       <c r="J41">
-        <v>843.43</v>
+        <v>977.09500000000003</v>
       </c>
       <c r="K41">
-        <v>156.84899999999999</v>
+        <v>172.27799999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>86764.934999999998</v>
+        <v>12896.379000000001</v>
       </c>
       <c r="O41">
-        <v>88949.391000000003</v>
+        <v>13963.772999999999</v>
       </c>
       <c r="P41">
-        <v>1246.931</v>
+        <v>1398.088</v>
       </c>
       <c r="Q41">
-        <v>1485.67</v>
+        <v>-411.97399999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>4336</v>
+        <v>1341</v>
       </c>
       <c r="T41">
-        <v>7967.38</v>
+        <v>1696.296</v>
       </c>
       <c r="U41">
-        <v>3337.6120000000001</v>
+        <v>830.25400000000002</v>
       </c>
       <c r="V41">
-        <v>307.81299999999999</v>
+        <v>49.87</v>
       </c>
       <c r="W41">
-        <v>-4.5940000000000003</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>10233.36</v>
+        <v>659.43499999999995</v>
       </c>
       <c r="Y41">
-        <v>233.87</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-7377.5879999999997</v>
+        <v>-704.66399999999999</v>
       </c>
       <c r="AA41">
-        <v>446.30700000000002</v>
+        <v>37.786999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="D42">
+        <v>160.87799999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>160.87799999999999</v>
+      </c>
+      <c r="G42">
+        <v>3280.66</v>
+      </c>
+      <c r="H42">
+        <v>17527.760999999999</v>
+      </c>
+      <c r="I42">
+        <v>14336.941000000001</v>
+      </c>
+      <c r="J42">
+        <v>959.95600000000002</v>
+      </c>
+      <c r="K42">
+        <v>47.512</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>14729.53</v>
+      </c>
+      <c r="O42">
+        <v>15779.483</v>
+      </c>
+      <c r="P42">
+        <v>1256.7719999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-701.93700000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1357</v>
+      </c>
+      <c r="T42">
+        <v>1748.278</v>
+      </c>
+      <c r="U42">
+        <v>2969.1579999999999</v>
+      </c>
+      <c r="V42">
+        <v>18.366</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1936.6420000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1992.6569999999999</v>
+      </c>
+      <c r="AA42">
+        <v>17.486999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>33.006999999999998</v>
+      </c>
+      <c r="D43">
+        <v>213.3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>213.3</v>
+      </c>
+      <c r="G43">
+        <v>2575.002</v>
+      </c>
+      <c r="H43">
+        <v>18618.266</v>
+      </c>
+      <c r="I43">
+        <v>15330.319</v>
+      </c>
+      <c r="J43">
+        <v>954.83299999999997</v>
+      </c>
+      <c r="K43">
+        <v>108.351</v>
+      </c>
+      <c r="L43">
+        <v>-1.83</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>15727.879000000001</v>
+      </c>
+      <c r="O43">
+        <v>16771.235000000001</v>
+      </c>
+      <c r="P43">
+        <v>1313.0840000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-726.37199999999996</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>1396</v>
+      </c>
+      <c r="T43">
+        <v>1847.0309999999999</v>
+      </c>
+      <c r="U43">
+        <v>830.37300000000005</v>
+      </c>
+      <c r="V43">
+        <v>6.1230000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1027.5889999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-1637.2909999999999</v>
+      </c>
+      <c r="AA43">
+        <v>33.006999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>65.75</v>
+      </c>
+      <c r="D44">
+        <v>254.02699999999999</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>254.02699999999999</v>
+      </c>
+      <c r="G44">
+        <v>2852.308</v>
+      </c>
+      <c r="H44">
+        <v>19366.735000000001</v>
+      </c>
+      <c r="I44">
+        <v>16278.474</v>
+      </c>
+      <c r="J44">
+        <v>596.29600000000005</v>
+      </c>
+      <c r="K44">
+        <v>217.792</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>16576.099999999999</v>
+      </c>
+      <c r="O44">
+        <v>17350.684000000001</v>
+      </c>
+      <c r="P44">
+        <v>827.38800000000003</v>
+      </c>
+      <c r="Q44">
+        <v>215.15899999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>1428</v>
+      </c>
+      <c r="T44">
+        <v>2016.0509999999999</v>
+      </c>
+      <c r="U44">
+        <v>763.21600000000001</v>
+      </c>
+      <c r="V44">
+        <v>165.68299999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>389.30900000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-11.725</v>
+      </c>
+      <c r="AA44">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>37.570999999999998</v>
+      </c>
+      <c r="D45">
+        <v>230.297</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>230.297</v>
+      </c>
+      <c r="G45">
+        <v>2217.326</v>
+      </c>
+      <c r="H45">
+        <v>19195.363000000001</v>
+      </c>
+      <c r="I45">
+        <v>16139.222</v>
+      </c>
+      <c r="J45">
+        <v>458.46199999999999</v>
+      </c>
+      <c r="K45">
+        <v>47.247999999999998</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>16426.601999999999</v>
+      </c>
+      <c r="O45">
+        <v>17003.035</v>
+      </c>
+      <c r="P45">
+        <v>656.80499999999995</v>
+      </c>
+      <c r="Q45">
+        <v>-523.24699999999996</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>1504</v>
+      </c>
+      <c r="T45">
+        <v>2192.328</v>
+      </c>
+      <c r="U45">
+        <v>857.81700000000001</v>
+      </c>
+      <c r="V45">
+        <v>-81.617999999999995</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-95.653999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-4.7329999999999997</v>
+      </c>
+      <c r="AA45">
+        <v>37.570999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>35.573999999999998</v>
+      </c>
+      <c r="D46">
+        <v>204.88399999999999</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>204.88399999999999</v>
+      </c>
+      <c r="G46">
+        <v>1415.211</v>
+      </c>
+      <c r="H46">
+        <v>19968.894</v>
+      </c>
+      <c r="I46">
+        <v>16709.536</v>
+      </c>
+      <c r="J46">
+        <v>458.24</v>
+      </c>
+      <c r="K46">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>17139.010999999999</v>
+      </c>
+      <c r="O46">
+        <v>17718.505000000001</v>
+      </c>
+      <c r="P46">
+        <v>620.51599999999996</v>
+      </c>
+      <c r="Q46">
+        <v>-927.024</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1526</v>
+      </c>
+      <c r="T46">
+        <v>2250.3890000000001</v>
+      </c>
+      <c r="U46">
+        <v>848.34900000000005</v>
+      </c>
+      <c r="V46">
+        <v>76.099000000000004</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>589.83600000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-949.77200000000005</v>
+      </c>
+      <c r="AA46">
+        <v>35.573999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>34.79</v>
+      </c>
+      <c r="D47">
+        <v>195.70099999999999</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>195.70099999999999</v>
+      </c>
+      <c r="G47">
+        <v>1106.5909999999999</v>
+      </c>
+      <c r="H47">
+        <v>20818.337</v>
+      </c>
+      <c r="I47">
+        <v>16716.882000000001</v>
+      </c>
+      <c r="J47">
+        <v>457.79899999999998</v>
+      </c>
+      <c r="K47">
+        <v>860.69899999999996</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>17870.940999999999</v>
+      </c>
+      <c r="O47">
+        <v>18475.633999999998</v>
+      </c>
+      <c r="P47">
+        <v>1462.5340000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-264.32400000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>1554</v>
+      </c>
+      <c r="T47">
+        <v>2342.703</v>
+      </c>
+      <c r="U47">
+        <v>612.13</v>
+      </c>
+      <c r="V47">
+        <v>-10.872</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>894.72799999999995</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-998.60500000000002</v>
+      </c>
+      <c r="AA47">
+        <v>34.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>47.603000000000002</v>
+      </c>
+      <c r="D48">
+        <v>224.36099999999999</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>224.36099999999999</v>
+      </c>
+      <c r="G48">
+        <v>1693.96</v>
+      </c>
+      <c r="H48">
+        <v>21289.772000000001</v>
+      </c>
+      <c r="I48">
+        <v>18068.812000000002</v>
+      </c>
+      <c r="J48">
+        <v>458.23200000000003</v>
+      </c>
+      <c r="K48">
+        <v>21.300999999999998</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>18230.09</v>
+      </c>
+      <c r="O48">
+        <v>18845.447</v>
+      </c>
+      <c r="P48">
+        <v>479.53300000000002</v>
+      </c>
+      <c r="Q48">
+        <v>561.101</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>1562</v>
+      </c>
+      <c r="T48">
+        <v>2444.3249999999998</v>
+      </c>
+      <c r="U48">
+        <v>648.53800000000001</v>
+      </c>
+      <c r="V48">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>389.61</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>845.08199999999999</v>
+      </c>
+      <c r="AA48">
+        <v>47.603000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>42.289000000000001</v>
+      </c>
+      <c r="D49">
+        <v>216.78100000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>216.78100000000001</v>
+      </c>
+      <c r="G49">
+        <v>1118.818</v>
+      </c>
+      <c r="H49">
+        <v>21576.934000000001</v>
+      </c>
+      <c r="I49">
+        <v>17725.065999999999</v>
+      </c>
+      <c r="J49">
+        <v>458.31400000000002</v>
+      </c>
+      <c r="K49">
+        <v>520.89300000000003</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>18376.983</v>
+      </c>
+      <c r="O49">
+        <v>19021.588</v>
+      </c>
+      <c r="P49">
+        <v>979.20699999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-505.04500000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>1602</v>
+      </c>
+      <c r="T49">
+        <v>2555.346</v>
+      </c>
+      <c r="U49">
+        <v>651.30399999999997</v>
+      </c>
+      <c r="V49">
+        <v>133.708</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>193.084</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-418.80599999999998</v>
+      </c>
+      <c r="AA49">
+        <v>42.289000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>50.420999999999999</v>
+      </c>
+      <c r="D50">
+        <v>272.23700000000002</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>272.23700000000002</v>
+      </c>
+      <c r="G50">
+        <v>1229.7190000000001</v>
+      </c>
+      <c r="H50">
+        <v>22766.123</v>
+      </c>
+      <c r="I50">
+        <v>19176.452000000001</v>
+      </c>
+      <c r="J50">
+        <v>457.762</v>
+      </c>
+      <c r="K50">
+        <v>179.547</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>19508.076000000001</v>
+      </c>
+      <c r="O50">
+        <v>20160.89</v>
+      </c>
+      <c r="P50">
+        <v>637.30899999999997</v>
+      </c>
+      <c r="Q50">
+        <v>102.303</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1615</v>
+      </c>
+      <c r="T50">
+        <v>2605.2330000000002</v>
+      </c>
+      <c r="U50">
+        <v>763.45299999999997</v>
+      </c>
+      <c r="V50">
+        <v>74.474000000000004</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1106.873</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-328.09199999999998</v>
+      </c>
+      <c r="AA50">
+        <v>50.420999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>40.890999999999998</v>
+      </c>
+      <c r="D51">
+        <v>235.96</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>235.96</v>
+      </c>
+      <c r="G51">
+        <v>1779.444</v>
+      </c>
+      <c r="H51">
+        <v>22796</v>
+      </c>
+      <c r="I51">
+        <v>19309.907999999999</v>
+      </c>
+      <c r="J51">
+        <v>457.19400000000002</v>
+      </c>
+      <c r="K51">
+        <v>19.664000000000001</v>
+      </c>
+      <c r="L51">
+        <v>-158.65</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>19487.252</v>
+      </c>
+      <c r="O51">
+        <v>20133.941999999999</v>
+      </c>
+      <c r="P51">
+        <v>476.858</v>
+      </c>
+      <c r="Q51">
+        <v>510.26600000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>1663</v>
+      </c>
+      <c r="T51">
+        <v>2662.058</v>
+      </c>
+      <c r="U51">
+        <v>546.56200000000001</v>
+      </c>
+      <c r="V51">
+        <v>-1.044</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-21.015999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>428.59399999999999</v>
+      </c>
+      <c r="AA51">
+        <v>40.890999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>48.584000000000003</v>
+      </c>
+      <c r="D52">
+        <v>249.74799999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>249.74799999999999</v>
+      </c>
+      <c r="G52">
+        <v>1128.28</v>
+      </c>
+      <c r="H52">
+        <v>22153.901000000002</v>
+      </c>
+      <c r="I52">
+        <v>18690.074000000001</v>
+      </c>
+      <c r="J52">
+        <v>455.93799999999999</v>
+      </c>
+      <c r="K52">
+        <v>16.843</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>18864.440999999999</v>
+      </c>
+      <c r="O52">
+        <v>19481.806</v>
+      </c>
+      <c r="P52">
+        <v>472.78100000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-645.99800000000005</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>1657</v>
+      </c>
+      <c r="T52">
+        <v>2672.0949999999998</v>
+      </c>
+      <c r="U52">
+        <v>542.64800000000002</v>
+      </c>
+      <c r="V52">
+        <v>33.415999999999997</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-589.02200000000005</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>692.45500000000004</v>
+      </c>
+      <c r="AA52">
+        <v>48.584000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>67.620999999999995</v>
+      </c>
+      <c r="D53">
+        <v>424.108</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>424.108</v>
+      </c>
+      <c r="G53">
+        <v>2201.2530000000002</v>
+      </c>
+      <c r="H53">
+        <v>23740.864000000001</v>
+      </c>
+      <c r="I53">
+        <v>19996.991000000002</v>
+      </c>
+      <c r="J53">
+        <v>455.74400000000003</v>
+      </c>
+      <c r="K53">
+        <v>24.015999999999998</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>20194.556</v>
+      </c>
+      <c r="O53">
+        <v>20817.22</v>
+      </c>
+      <c r="P53">
+        <v>479.76</v>
+      </c>
+      <c r="Q53">
+        <v>1069.4929999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>1683</v>
+      </c>
+      <c r="T53">
+        <v>2923.6439999999998</v>
+      </c>
+      <c r="U53">
+        <v>574.71799999999996</v>
+      </c>
+      <c r="V53">
+        <v>65.67</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1320.8779999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-116.42100000000001</v>
+      </c>
+      <c r="AA53">
+        <v>67.620999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>58.756999999999998</v>
+      </c>
+      <c r="D54">
+        <v>397.041</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>397.041</v>
+      </c>
+      <c r="G54">
+        <v>1823.8620000000001</v>
+      </c>
+      <c r="H54">
+        <v>26417.188999999998</v>
+      </c>
+      <c r="I54">
+        <v>22472.978999999999</v>
+      </c>
+      <c r="J54">
+        <v>455.21600000000001</v>
+      </c>
+      <c r="K54">
+        <v>19.093</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>22699.931</v>
+      </c>
+      <c r="O54">
+        <v>23337.861000000001</v>
+      </c>
+      <c r="P54">
+        <v>474.30900000000003</v>
+      </c>
+      <c r="Q54">
+        <v>-403.96499999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>1704</v>
+      </c>
+      <c r="T54">
+        <v>3079.328</v>
+      </c>
+      <c r="U54">
+        <v>1234.4159999999999</v>
+      </c>
+      <c r="V54">
+        <v>73.736000000000004</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>2486.1660000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-1881.123</v>
+      </c>
+      <c r="AA54">
+        <v>58.756999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>90.95</v>
+      </c>
+      <c r="D55">
+        <v>506.05900000000003</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>506.05900000000003</v>
+      </c>
+      <c r="G55">
+        <v>4175.2</v>
+      </c>
+      <c r="H55">
+        <v>29711.039000000001</v>
+      </c>
+      <c r="I55">
+        <v>25476.904999999999</v>
+      </c>
+      <c r="J55">
+        <v>454.77</v>
+      </c>
+      <c r="K55">
+        <v>16.704000000000001</v>
+      </c>
+      <c r="L55">
+        <v>-0.27</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>25683.16</v>
+      </c>
+      <c r="O55">
+        <v>26344.058000000001</v>
+      </c>
+      <c r="P55">
+        <v>471.47399999999999</v>
+      </c>
+      <c r="Q55">
+        <v>2323.6849999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>1737</v>
+      </c>
+      <c r="T55">
+        <v>3366.9810000000002</v>
+      </c>
+      <c r="U55">
+        <v>745.428</v>
+      </c>
+      <c r="V55">
+        <v>49.99</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>2990.3139999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-778.04300000000001</v>
+      </c>
+      <c r="AA55">
+        <v>90.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>50.953000000000003</v>
+      </c>
+      <c r="D56">
+        <v>217.22800000000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>217.22800000000001</v>
+      </c>
+      <c r="G56">
+        <v>2993.96</v>
+      </c>
+      <c r="H56">
+        <v>33309.016000000003</v>
+      </c>
+      <c r="I56">
+        <v>28352.546999999999</v>
+      </c>
+      <c r="J56">
+        <v>454.46199999999999</v>
+      </c>
+      <c r="K56">
+        <v>18.074000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>28712.609</v>
+      </c>
+      <c r="O56">
+        <v>29370.991999999998</v>
+      </c>
+      <c r="P56">
+        <v>472.536</v>
+      </c>
+      <c r="Q56">
+        <v>-1212.633</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>1786</v>
+      </c>
+      <c r="T56">
+        <v>3938.0239999999999</v>
+      </c>
+      <c r="U56">
+        <v>896.06700000000001</v>
+      </c>
+      <c r="V56">
+        <v>168.09899999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>3348.5509999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-4211.268</v>
+      </c>
+      <c r="AA56">
+        <v>50.953000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>63.976999999999997</v>
+      </c>
+      <c r="D57">
+        <v>284.12200000000001</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>284.12200000000001</v>
+      </c>
+      <c r="G57">
+        <v>2187.5219999999999</v>
+      </c>
+      <c r="H57">
+        <v>36041.006999999998</v>
+      </c>
+      <c r="I57">
+        <v>31123.134999999998</v>
+      </c>
+      <c r="J57">
+        <v>453.76400000000001</v>
+      </c>
+      <c r="K57">
+        <v>24.78</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>31438.651999999998</v>
+      </c>
+      <c r="O57">
+        <v>32100.991000000002</v>
+      </c>
+      <c r="P57">
+        <v>478.54399999999998</v>
+      </c>
+      <c r="Q57">
+        <v>-777.29399999999998</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>1881</v>
+      </c>
+      <c r="T57">
+        <v>3940.0160000000001</v>
+      </c>
+      <c r="U57">
+        <v>938.70299999999997</v>
+      </c>
+      <c r="V57">
+        <v>18.285</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>2735.4639999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-2860.1680000000001</v>
+      </c>
+      <c r="AA57">
+        <v>63.976999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>57.99</v>
+      </c>
+      <c r="D58">
+        <v>361.93900000000002</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>361.93900000000002</v>
+      </c>
+      <c r="G58">
+        <v>2120.857</v>
+      </c>
+      <c r="H58">
+        <v>39337.868999999999</v>
+      </c>
+      <c r="I58">
+        <v>34343.499000000003</v>
+      </c>
+      <c r="J58">
+        <v>451.36200000000002</v>
+      </c>
+      <c r="K58">
+        <v>38.892000000000003</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>34598.231</v>
+      </c>
+      <c r="O58">
+        <v>35286.135000000002</v>
+      </c>
+      <c r="P58">
+        <v>490.25400000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-61.523000000000003</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>1914</v>
+      </c>
+      <c r="T58">
+        <v>4051.7339999999999</v>
+      </c>
+      <c r="U58">
+        <v>1532.0640000000001</v>
+      </c>
+      <c r="V58">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>3176.32</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-867.64499999999998</v>
+      </c>
+      <c r="AA58">
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="D59">
+        <v>355.99700000000001</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>355.99700000000001</v>
+      </c>
+      <c r="G59">
+        <v>1874.739</v>
+      </c>
+      <c r="H59">
+        <v>39695.99</v>
+      </c>
+      <c r="I59">
+        <v>33851.574999999997</v>
+      </c>
+      <c r="J59">
+        <v>802.91700000000003</v>
+      </c>
+      <c r="K59">
+        <v>126.65900000000001</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>34366.557000000001</v>
+      </c>
+      <c r="O59">
+        <v>35418.758999999998</v>
+      </c>
+      <c r="P59">
+        <v>929.57600000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-547.16800000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>1965</v>
+      </c>
+      <c r="T59">
+        <v>4277.2309999999998</v>
+      </c>
+      <c r="U59">
+        <v>835.976</v>
+      </c>
+      <c r="V59">
+        <v>53.206000000000003</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-62.164000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-489.83199999999999</v>
+      </c>
+      <c r="AA59">
+        <v>88.516000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>86.143000000000001</v>
+      </c>
+      <c r="D60">
+        <v>343.54500000000002</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>343.54500000000002</v>
+      </c>
+      <c r="G60">
+        <v>3040.2550000000001</v>
+      </c>
+      <c r="H60">
+        <v>40236.118000000002</v>
+      </c>
+      <c r="I60">
+        <v>35626.964999999997</v>
+      </c>
+      <c r="J60">
+        <v>802.45399999999995</v>
+      </c>
+      <c r="K60">
+        <v>35.811999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>35964.019999999997</v>
+      </c>
+      <c r="O60">
+        <v>37046.646000000001</v>
+      </c>
+      <c r="P60">
+        <v>838.26599999999996</v>
+      </c>
+      <c r="Q60">
+        <v>1361.704</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>1964</v>
+      </c>
+      <c r="T60">
+        <v>3189.4720000000002</v>
+      </c>
+      <c r="U60">
+        <v>886.93799999999999</v>
+      </c>
+      <c r="V60">
+        <v>157.673</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1623.0070000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-649.38800000000003</v>
+      </c>
+      <c r="AA60">
+        <v>86.143000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="D61">
+        <v>329.73399999999998</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>329.73399999999998</v>
+      </c>
+      <c r="G61">
+        <v>2089.6790000000001</v>
+      </c>
+      <c r="H61">
+        <v>41730.982000000004</v>
+      </c>
+      <c r="I61">
+        <v>37049.417000000001</v>
+      </c>
+      <c r="J61">
+        <v>797.21100000000001</v>
+      </c>
+      <c r="K61">
+        <v>38.414000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>37351.196000000004</v>
+      </c>
+      <c r="O61">
+        <v>38416.754000000001</v>
+      </c>
+      <c r="P61">
+        <v>835.625</v>
+      </c>
+      <c r="Q61">
+        <v>-951.40499999999997</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>2054</v>
+      </c>
+      <c r="T61">
+        <v>3314.2280000000001</v>
+      </c>
+      <c r="U61">
+        <v>820.66099999999994</v>
+      </c>
+      <c r="V61">
+        <v>43.328000000000003</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1420.19</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-1344.1279999999999</v>
+      </c>
+      <c r="AA61">
+        <v>81.733000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>87.512</v>
+      </c>
+      <c r="D62">
+        <v>352.31400000000002</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>352.31400000000002</v>
+      </c>
+      <c r="G62">
+        <v>1977.4380000000001</v>
+      </c>
+      <c r="H62">
+        <v>44686.703000000001</v>
+      </c>
+      <c r="I62">
+        <v>39142.775999999998</v>
+      </c>
+      <c r="J62">
+        <v>796.702</v>
+      </c>
+      <c r="K62">
+        <v>805.63699999999994</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>40254.245999999999</v>
+      </c>
+      <c r="O62">
+        <v>41353.472000000002</v>
+      </c>
+      <c r="P62">
+        <v>1602.3389999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-170.88800000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2089</v>
+      </c>
+      <c r="T62">
+        <v>3333.2310000000002</v>
+      </c>
+      <c r="U62">
+        <v>1099.7650000000001</v>
+      </c>
+      <c r="V62">
+        <v>84.99</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>2867.7489999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1684.8050000000001</v>
+      </c>
+      <c r="AA62">
+        <v>87.512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>79.174000000000007</v>
+      </c>
+      <c r="D63">
+        <v>334.08</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>334.08</v>
+      </c>
+      <c r="G63">
+        <v>2271.645</v>
+      </c>
+      <c r="H63">
+        <v>43573.902000000002</v>
+      </c>
+      <c r="I63">
+        <v>38759.720999999998</v>
+      </c>
+      <c r="J63">
+        <v>796.57</v>
+      </c>
+      <c r="K63">
+        <v>52.691000000000003</v>
+      </c>
+      <c r="L63">
+        <v>-774.9</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>38945.741000000002</v>
+      </c>
+      <c r="O63">
+        <v>40062.862000000001</v>
+      </c>
+      <c r="P63">
+        <v>849.26099999999997</v>
+      </c>
+      <c r="Q63">
+        <v>365.255</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>2170</v>
+      </c>
+      <c r="T63">
+        <v>3511.04</v>
+      </c>
+      <c r="U63">
+        <v>1101.0909999999999</v>
+      </c>
+      <c r="V63">
+        <v>56.061</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-1164.884</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>2479.6970000000001</v>
+      </c>
+      <c r="AA63">
+        <v>79.174000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>92.963999999999999</v>
+      </c>
+      <c r="D64">
+        <v>359.36599999999999</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>359.36599999999999</v>
+      </c>
+      <c r="G64">
+        <v>2309.221</v>
+      </c>
+      <c r="H64">
+        <v>43132.654000000002</v>
+      </c>
+      <c r="I64">
+        <v>37596.567000000003</v>
+      </c>
+      <c r="J64">
+        <v>796.32899999999995</v>
+      </c>
+      <c r="K64">
+        <v>558.41399999999999</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>38395.031000000003</v>
+      </c>
+      <c r="O64">
+        <v>39498.860999999997</v>
+      </c>
+      <c r="P64">
+        <v>1354.7429999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-14.055</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>2188</v>
+      </c>
+      <c r="T64">
+        <v>3633.7930000000001</v>
+      </c>
+      <c r="U64">
+        <v>996.39800000000002</v>
+      </c>
+      <c r="V64">
+        <v>86.006</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-654.13400000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1658.34</v>
+      </c>
+      <c r="AA64">
+        <v>92.963999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>111.081</v>
+      </c>
+      <c r="D65">
+        <v>413.29700000000003</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>413.29700000000003</v>
+      </c>
+      <c r="G65">
+        <v>3024.64</v>
+      </c>
+      <c r="H65">
+        <v>43274.036999999997</v>
+      </c>
+      <c r="I65">
+        <v>38189.415999999997</v>
+      </c>
+      <c r="J65">
+        <v>748.87699999999995</v>
+      </c>
+      <c r="K65">
+        <v>51.259</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>38508.357000000004</v>
+      </c>
+      <c r="O65">
+        <v>39550.720000000001</v>
+      </c>
+      <c r="P65">
+        <v>847.23</v>
+      </c>
+      <c r="Q65">
+        <v>666.86199999999997</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>2280</v>
+      </c>
+      <c r="T65">
+        <v>3723.317</v>
+      </c>
+      <c r="U65">
+        <v>1057.5999999999999</v>
+      </c>
+      <c r="V65">
+        <v>130.93700000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>91.632000000000005</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>737.23099999999999</v>
+      </c>
+      <c r="AA65">
+        <v>111.081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>99.465999999999994</v>
+      </c>
+      <c r="D66">
+        <v>393.65300000000002</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>393.65300000000002</v>
+      </c>
+      <c r="G66">
+        <v>2982.6689999999999</v>
+      </c>
+      <c r="H66">
+        <v>44683.66</v>
+      </c>
+      <c r="I66">
+        <v>38979.868000000002</v>
+      </c>
+      <c r="J66">
+        <v>749.05799999999999</v>
+      </c>
+      <c r="K66">
+        <v>577.10599999999999</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>39807.480000000003</v>
+      </c>
+      <c r="O66">
+        <v>40906.623</v>
+      </c>
+      <c r="P66">
+        <v>1372.81</v>
+      </c>
+      <c r="Q66">
+        <v>24.431000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2311</v>
+      </c>
+      <c r="T66">
+        <v>3777.0369999999998</v>
+      </c>
+      <c r="U66">
+        <v>2111.7199999999998</v>
+      </c>
+      <c r="V66">
+        <v>164.97300000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1316.558</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-649.33199999999999</v>
+      </c>
+      <c r="AA66">
+        <v>99.465999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>101.483</v>
+      </c>
+      <c r="D67">
+        <v>396.91800000000001</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>396.91800000000001</v>
+      </c>
+      <c r="G67">
+        <v>4232.4459999999999</v>
+      </c>
+      <c r="H67">
+        <v>46413.339</v>
+      </c>
+      <c r="I67">
+        <v>41079.699999999997</v>
+      </c>
+      <c r="J67">
+        <v>749.24199999999996</v>
+      </c>
+      <c r="K67">
+        <v>60.911999999999999</v>
+      </c>
+      <c r="L67">
+        <v>-507.505</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>41355.409</v>
+      </c>
+      <c r="O67">
+        <v>42509.883000000002</v>
+      </c>
+      <c r="P67">
+        <v>856.37699999999995</v>
+      </c>
+      <c r="Q67">
+        <v>1249.9290000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>2347</v>
+      </c>
+      <c r="T67">
+        <v>3903.4560000000001</v>
+      </c>
+      <c r="U67">
+        <v>1217.6420000000001</v>
+      </c>
+      <c r="V67">
+        <v>111.937</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1599.4090000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>68.635999999999996</v>
+      </c>
+      <c r="AA67">
+        <v>101.483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>123.193</v>
+      </c>
+      <c r="D68">
+        <v>455.41800000000001</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>455.41800000000001</v>
+      </c>
+      <c r="G68">
+        <v>4620.5959999999995</v>
+      </c>
+      <c r="H68">
+        <v>48400.379000000001</v>
+      </c>
+      <c r="I68">
+        <v>42465.290999999997</v>
+      </c>
+      <c r="J68">
+        <v>749.42899999999997</v>
+      </c>
+      <c r="K68">
+        <v>88.405000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>43168.440999999999</v>
+      </c>
+      <c r="O68">
+        <v>44360.343999999997</v>
+      </c>
+      <c r="P68">
+        <v>837.83399999999995</v>
+      </c>
+      <c r="Q68">
+        <v>58.564999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>2380</v>
+      </c>
+      <c r="T68">
+        <v>4040.0349999999999</v>
+      </c>
+      <c r="U68">
+        <v>1861.8230000000001</v>
+      </c>
+      <c r="V68">
+        <v>284.78399999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1331.894</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1000.614</v>
+      </c>
+      <c r="AA68">
+        <v>123.193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>148.62</v>
+      </c>
+      <c r="D69">
+        <v>509.23</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>509.23</v>
+      </c>
+      <c r="G69">
+        <v>4159.1239999999998</v>
+      </c>
+      <c r="H69">
+        <v>50754.286999999997</v>
+      </c>
+      <c r="I69">
+        <v>44812.033000000003</v>
+      </c>
+      <c r="J69">
+        <v>749.61800000000005</v>
+      </c>
+      <c r="K69">
+        <v>105.756</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>45291.074999999997</v>
+      </c>
+      <c r="O69">
+        <v>46556.989000000001</v>
+      </c>
+      <c r="P69">
+        <v>855.37400000000002</v>
+      </c>
+      <c r="Q69">
+        <v>-298.673</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>2433</v>
+      </c>
+      <c r="T69">
+        <v>4197.2979999999998</v>
+      </c>
+      <c r="U69">
+        <v>1892.9069999999999</v>
+      </c>
+      <c r="V69">
+        <v>124.352</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>2344.8690000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1559.376</v>
+      </c>
+      <c r="AA69">
+        <v>148.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>117.21</v>
+      </c>
+      <c r="D70">
+        <v>523.73</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>523.73</v>
+      </c>
+      <c r="G70">
+        <v>3561.6840000000002</v>
+      </c>
+      <c r="H70">
+        <v>51214.466999999997</v>
+      </c>
+      <c r="I70">
+        <v>44254.074999999997</v>
+      </c>
+      <c r="J70">
+        <v>695.49199999999996</v>
+      </c>
+      <c r="K70">
+        <v>1142.3109999999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>45766.724000000002</v>
+      </c>
+      <c r="O70">
+        <v>46895.052000000003</v>
+      </c>
+      <c r="P70">
+        <v>1837.8030000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-632.49599999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2438</v>
+      </c>
+      <c r="T70">
+        <v>4319.415</v>
+      </c>
+      <c r="U70">
+        <v>2277.9639999999999</v>
+      </c>
+      <c r="V70">
+        <v>125.792</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>424.78399999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-261.15899999999999</v>
+      </c>
+      <c r="AA70">
+        <v>117.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>194.96100000000001</v>
+      </c>
+      <c r="D71">
+        <v>547.40899999999999</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>547.40899999999999</v>
+      </c>
+      <c r="G71">
+        <v>3324.6439999999998</v>
+      </c>
+      <c r="H71">
+        <v>53500.786999999997</v>
+      </c>
+      <c r="I71">
+        <v>45936.531999999999</v>
+      </c>
+      <c r="J71">
+        <v>695.73099999999999</v>
+      </c>
+      <c r="K71">
+        <v>1219.8340000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>47602.027000000002</v>
+      </c>
+      <c r="O71">
+        <v>48941.063000000002</v>
+      </c>
+      <c r="P71">
+        <v>1915.5650000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-303.69099999999997</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>2512</v>
+      </c>
+      <c r="T71">
+        <v>4559.7240000000002</v>
+      </c>
+      <c r="U71">
+        <v>1866.0039999999999</v>
+      </c>
+      <c r="V71">
+        <v>348.404</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1744.558</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-924.93799999999999</v>
+      </c>
+      <c r="AA71">
+        <v>194.96100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>237.798</v>
+      </c>
+      <c r="D72">
+        <v>630.05200000000002</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>630.05200000000002</v>
+      </c>
+      <c r="G72">
+        <v>3395.2840000000001</v>
+      </c>
+      <c r="H72">
+        <v>55867.745000000003</v>
+      </c>
+      <c r="I72">
+        <v>48887.294999999998</v>
+      </c>
+      <c r="J72">
+        <v>695.97199999999998</v>
+      </c>
+      <c r="K72">
+        <v>514.45000000000005</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>49782.69</v>
+      </c>
+      <c r="O72">
+        <v>51062.904000000002</v>
+      </c>
+      <c r="P72">
+        <v>1210.422</v>
+      </c>
+      <c r="Q72">
+        <v>92.716999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>2626</v>
+      </c>
+      <c r="T72">
+        <v>4804.8410000000003</v>
+      </c>
+      <c r="U72">
+        <v>2028.922</v>
+      </c>
+      <c r="V72">
+        <v>-1.024</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>2267.1950000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-774.78099999999995</v>
+      </c>
+      <c r="AA72">
+        <v>237.798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>274.81700000000001</v>
+      </c>
+      <c r="D73">
+        <v>686.11800000000005</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>686.11800000000005</v>
+      </c>
+      <c r="G73">
+        <v>4562.4960000000001</v>
+      </c>
+      <c r="H73">
+        <v>58139.733999999997</v>
+      </c>
+      <c r="I73">
+        <v>48596.110999999997</v>
+      </c>
+      <c r="J73">
+        <v>696.21699999999998</v>
+      </c>
+      <c r="K73">
+        <v>2722.5729999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>51833.123</v>
+      </c>
+      <c r="O73">
+        <v>53069.688999999998</v>
+      </c>
+      <c r="P73">
+        <v>3418.79</v>
+      </c>
+      <c r="Q73">
+        <v>1107.04</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>2836</v>
+      </c>
+      <c r="T73">
+        <v>5070.0450000000001</v>
+      </c>
+      <c r="U73">
+        <v>1599.96</v>
+      </c>
+      <c r="V73">
+        <v>356.524</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>1916.7049999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>349.12099999999998</v>
+      </c>
+      <c r="AA73">
+        <v>274.81700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>266.26400000000001</v>
+      </c>
+      <c r="D74">
+        <v>687.52300000000002</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>687.52300000000002</v>
+      </c>
+      <c r="G74">
+        <v>4235.68</v>
+      </c>
+      <c r="H74">
+        <v>56927.978999999999</v>
+      </c>
+      <c r="I74">
+        <v>49328.9</v>
+      </c>
+      <c r="J74">
+        <v>696.46500000000003</v>
+      </c>
+      <c r="K74">
+        <v>729.46199999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>50453.122000000003</v>
+      </c>
+      <c r="O74">
+        <v>51663.135999999999</v>
+      </c>
+      <c r="P74">
+        <v>1425.9269999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-247.602</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2900</v>
+      </c>
+      <c r="T74">
+        <v>5264.8429999999998</v>
+      </c>
+      <c r="U74">
+        <v>2992.0619999999999</v>
+      </c>
+      <c r="V74">
+        <v>229.65799999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1413.181</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1771.4970000000001</v>
+      </c>
+      <c r="AA74">
+        <v>266.26400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>288.73200000000003</v>
+      </c>
+      <c r="D75">
+        <v>764.71100000000001</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>764.71100000000001</v>
+      </c>
+      <c r="G75">
+        <v>7967.5339999999997</v>
+      </c>
+      <c r="H75">
+        <v>60160.285000000003</v>
+      </c>
+      <c r="I75">
+        <v>52327.197</v>
+      </c>
+      <c r="J75">
+        <v>696.71500000000003</v>
+      </c>
+      <c r="K75">
+        <v>106.06699999999999</v>
+      </c>
+      <c r="L75">
+        <v>-616.95699999999999</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>53111.913</v>
+      </c>
+      <c r="O75">
+        <v>54676.462</v>
+      </c>
+      <c r="P75">
+        <v>1007.949</v>
+      </c>
+      <c r="Q75">
+        <v>3495.3440000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>3250</v>
+      </c>
+      <c r="T75">
+        <v>5483.8230000000003</v>
+      </c>
+      <c r="U75">
+        <v>2068.1280000000002</v>
+      </c>
+      <c r="V75">
+        <v>340.75</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>2250.1669999999999</v>
+      </c>
+      <c r="Y75">
+        <v>205.167</v>
+      </c>
+      <c r="Z75">
+        <v>1515.4839999999999</v>
+      </c>
+      <c r="AA75">
+        <v>288.73200000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>317.98700000000002</v>
+      </c>
+      <c r="D76">
+        <v>839.20699999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>839.20699999999999</v>
+      </c>
+      <c r="G76">
+        <v>10046.413</v>
+      </c>
+      <c r="H76">
+        <v>63773.739000000001</v>
+      </c>
+      <c r="I76">
+        <v>55610.54</v>
+      </c>
+      <c r="J76">
+        <v>696.97</v>
+      </c>
+      <c r="K76">
+        <v>136.90299999999999</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>56533.521999999997</v>
+      </c>
+      <c r="O76">
+        <v>58067.563999999998</v>
+      </c>
+      <c r="P76">
+        <v>1029.1990000000001</v>
+      </c>
+      <c r="Q76">
+        <v>1954.0419999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>3314</v>
+      </c>
+      <c r="T76">
+        <v>5706.1750000000002</v>
+      </c>
+      <c r="U76">
+        <v>2329.2469999999998</v>
+      </c>
+      <c r="V76">
+        <v>109.821</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>3065.6689999999999</v>
+      </c>
+      <c r="Y76">
+        <v>195.32599999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-866.71500000000003</v>
+      </c>
+      <c r="AA76">
+        <v>317.98700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>267.28100000000001</v>
+      </c>
+      <c r="D77">
+        <v>778.11699999999996</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>778.11699999999996</v>
+      </c>
+      <c r="G77">
+        <v>8179.4139999999998</v>
+      </c>
+      <c r="H77">
+        <v>68231.232999999993</v>
+      </c>
+      <c r="I77">
+        <v>59542.874000000003</v>
+      </c>
+      <c r="J77">
+        <v>697.22699999999998</v>
+      </c>
+      <c r="K77">
+        <v>167.43799999999999</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>60677.627999999997</v>
+      </c>
+      <c r="O77">
+        <v>62182.764000000003</v>
+      </c>
+      <c r="P77">
+        <v>1057.2080000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-2074.7289999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>3460</v>
+      </c>
+      <c r="T77">
+        <v>6048.4690000000001</v>
+      </c>
+      <c r="U77">
+        <v>2459.0770000000002</v>
+      </c>
+      <c r="V77">
+        <v>259.173</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>3913.8530000000001</v>
+      </c>
+      <c r="Y77">
+        <v>181.54900000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-4392.1949999999997</v>
+      </c>
+      <c r="AA77">
+        <v>267.28100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>262.85599999999999</v>
+      </c>
+      <c r="D78">
+        <v>838.58900000000006</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>838.58900000000006</v>
+      </c>
+      <c r="G78">
+        <v>8189.4970000000003</v>
+      </c>
+      <c r="H78">
+        <v>71004.903000000006</v>
+      </c>
+      <c r="I78">
+        <v>61757.807000000001</v>
+      </c>
+      <c r="J78">
+        <v>347.98700000000002</v>
+      </c>
+      <c r="K78">
+        <v>155.41399999999999</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>63155.974000000002</v>
+      </c>
+      <c r="O78">
+        <v>64383.822999999997</v>
+      </c>
+      <c r="P78">
+        <v>722.24800000000005</v>
+      </c>
+      <c r="Q78">
+        <v>-164.41300000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3564</v>
+      </c>
+      <c r="T78">
+        <v>6621.08</v>
+      </c>
+      <c r="U78">
+        <v>6176.6589999999997</v>
+      </c>
+      <c r="V78">
+        <v>454.38499999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>2188.308</v>
+      </c>
+      <c r="Y78">
+        <v>218.84700000000001</v>
+      </c>
+      <c r="Z78">
+        <v>-686.87400000000002</v>
+      </c>
+      <c r="AA78">
+        <v>262.85599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>135.62200000000001</v>
+      </c>
+      <c r="D79">
+        <v>582.59100000000001</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>582.59100000000001</v>
+      </c>
+      <c r="G79">
+        <v>11262.32</v>
+      </c>
+      <c r="H79">
+        <v>75009.64</v>
+      </c>
+      <c r="I79">
+        <v>61911.957000000002</v>
+      </c>
+      <c r="J79">
+        <v>348.07600000000002</v>
+      </c>
+      <c r="K79">
+        <v>3365.5859999999998</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>66440.676000000007</v>
+      </c>
+      <c r="O79">
+        <v>67826.418999999994</v>
+      </c>
+      <c r="P79">
+        <v>3940.933</v>
+      </c>
+      <c r="Q79">
+        <v>2779.665</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>3710</v>
+      </c>
+      <c r="T79">
+        <v>7183.2209999999995</v>
+      </c>
+      <c r="U79">
+        <v>1959.69</v>
+      </c>
+      <c r="V79">
+        <v>168.125</v>
+      </c>
+      <c r="W79">
+        <v>-3.3690000000000002</v>
+      </c>
+      <c r="X79">
+        <v>3210.5810000000001</v>
+      </c>
+      <c r="Y79">
+        <v>192.96100000000001</v>
+      </c>
+      <c r="Z79">
+        <v>2222.4560000000001</v>
+      </c>
+      <c r="AA79">
+        <v>135.62200000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>233.529</v>
+      </c>
+      <c r="D80">
+        <v>815.29399999999998</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>815.29399999999998</v>
+      </c>
+      <c r="G80">
+        <v>16095.132</v>
+      </c>
+      <c r="H80">
+        <v>85730.985000000001</v>
+      </c>
+      <c r="I80">
+        <v>74505.763999999996</v>
+      </c>
+      <c r="J80">
+        <v>843.22</v>
+      </c>
+      <c r="K80">
+        <v>232.13800000000001</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>76279.574999999997</v>
+      </c>
+      <c r="O80">
+        <v>78262.672000000006</v>
+      </c>
+      <c r="P80">
+        <v>1314.7149999999999</v>
+      </c>
+      <c r="Q80">
+        <v>4640.6580000000004</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>3984</v>
+      </c>
+      <c r="T80">
+        <v>7468.3130000000001</v>
+      </c>
+      <c r="U80">
+        <v>2885.058</v>
+      </c>
+      <c r="V80">
+        <v>577.35299999999995</v>
+      </c>
+      <c r="W80">
+        <v>-4.5940000000000003</v>
+      </c>
+      <c r="X80">
+        <v>9997.1319999999996</v>
+      </c>
+      <c r="Y80">
+        <v>214.88</v>
+      </c>
+      <c r="Z80">
+        <v>-5174.09</v>
+      </c>
+      <c r="AA80">
+        <v>233.529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>446.30700000000002</v>
+      </c>
+      <c r="D81">
+        <v>1097.3230000000001</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1097.3230000000001</v>
+      </c>
+      <c r="G81">
+        <v>17596.370999999999</v>
+      </c>
+      <c r="H81">
+        <v>96916.770999999993</v>
+      </c>
+      <c r="I81">
+        <v>84773.02</v>
+      </c>
+      <c r="J81">
+        <v>843.43</v>
+      </c>
+      <c r="K81">
+        <v>156.84899999999999</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>86764.934999999998</v>
+      </c>
+      <c r="O81">
+        <v>88949.391000000003</v>
+      </c>
+      <c r="P81">
+        <v>1246.931</v>
+      </c>
+      <c r="Q81">
+        <v>1485.67</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>4336</v>
+      </c>
+      <c r="T81">
+        <v>7967.38</v>
+      </c>
+      <c r="U81">
+        <v>3337.6120000000001</v>
+      </c>
+      <c r="V81">
+        <v>307.81299999999999</v>
+      </c>
+      <c r="W81">
+        <v>-4.5940000000000003</v>
+      </c>
+      <c r="X81">
+        <v>10233.36</v>
+      </c>
+      <c r="Y81">
+        <v>233.87</v>
+      </c>
+      <c r="Z81">
+        <v>-7377.5879999999997</v>
+      </c>
+      <c r="AA81">
+        <v>446.30700000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>392.91</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1281.7139999999999</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1281.7139999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>20553.280999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>115511.007</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>101981.807</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>843.62800000000004</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>258.03100000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>105001.56600000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>107077.516</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1361.213</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>1986.9870000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>4461</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8433.491</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>17365.455000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>392.19600000000003</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-4.5940000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>17212.141</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>208.00700000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-8835.9560000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>392.91</v>
       </c>
     </row>
